--- a/Data/df_pred.xlsx
+++ b/Data/df_pred.xlsx
@@ -514,7 +514,7 @@
         <v>0.5647680271168477</v>
       </c>
       <c r="F3" t="n">
-        <v>15.07629767039741</v>
+        <v>15.05576974521022</v>
       </c>
       <c r="G3" t="n">
         <v>0.4271671251156677</v>
@@ -540,7 +540,7 @@
         <v>0.5354200735501208</v>
       </c>
       <c r="F4" t="n">
-        <v>9.260790867769449</v>
+        <v>9.076186270151126</v>
       </c>
       <c r="G4" t="n">
         <v>0.4006923614827048</v>
@@ -664,13 +664,13 @@
         <v>0.564667602128565</v>
       </c>
       <c r="D9" t="n">
-        <v>12.61864936994145</v>
+        <v>11.1998466018452</v>
       </c>
       <c r="E9" t="n">
         <v>0.6623820548709348</v>
       </c>
       <c r="F9" t="n">
-        <v>12.71007720064133</v>
+        <v>12.0146631954702</v>
       </c>
       <c r="G9" t="n">
         <v>0.3098791701827857</v>
@@ -742,7 +742,7 @@
         <v>0.5220675511743645</v>
       </c>
       <c r="D12" t="n">
-        <v>3.706269043197299</v>
+        <v>3.798192274404519</v>
       </c>
       <c r="E12" t="n">
         <v>0.449948242435337</v>
@@ -794,13 +794,13 @@
         <v>0.516777543228618</v>
       </c>
       <c r="D14" t="n">
-        <v>7.015839174620793</v>
+        <v>7.391178361244264</v>
       </c>
       <c r="E14" t="n">
         <v>0.5184046961890993</v>
       </c>
       <c r="F14" t="n">
-        <v>12.82794804314173</v>
+        <v>11.32177218920173</v>
       </c>
       <c r="G14" t="n">
         <v>0.3294342706537581</v>
@@ -820,13 +820,13 @@
         <v>0.5268220061627007</v>
       </c>
       <c r="D15" t="n">
-        <v>5.869090838123996</v>
+        <v>6.774976431667563</v>
       </c>
       <c r="E15" t="n">
         <v>0.5228229502370321</v>
       </c>
       <c r="F15" t="n">
-        <v>11.8440870120364</v>
+        <v>10.74619357063309</v>
       </c>
       <c r="G15" t="n">
         <v>0.3217085748963767</v>
@@ -898,7 +898,7 @@
         <v>0.5186622549534647</v>
       </c>
       <c r="D18" t="n">
-        <v>26.39625868338588</v>
+        <v>19.6705881078429</v>
       </c>
       <c r="E18" t="n">
         <v>0.3028775030640816</v>
@@ -930,7 +930,7 @@
         <v>0.5363721108232761</v>
       </c>
       <c r="F19" t="n">
-        <v>11.54796413449121</v>
+        <v>11.41915630909911</v>
       </c>
       <c r="G19" t="n">
         <v>0.4116361878467667</v>
@@ -956,7 +956,7 @@
         <v>0.5001732282987091</v>
       </c>
       <c r="F20" t="n">
-        <v>11.19149848118517</v>
+        <v>10.79887622362523</v>
       </c>
       <c r="G20" t="n">
         <v>0.3570994532712363</v>
@@ -976,7 +976,7 @@
         <v>0.614252479612969</v>
       </c>
       <c r="D21" t="n">
-        <v>8.06353731170436</v>
+        <v>7.671118926278749</v>
       </c>
       <c r="E21" t="n">
         <v>0.2794353898308818</v>
@@ -1028,7 +1028,7 @@
         <v>0.5169794083695426</v>
       </c>
       <c r="D23" t="n">
-        <v>5.865413709104571</v>
+        <v>6.012773855739654</v>
       </c>
       <c r="E23" t="n">
         <v>0.3422720385080225</v>
@@ -1106,7 +1106,7 @@
         <v>0.6529023960692134</v>
       </c>
       <c r="D26" t="n">
-        <v>5.630835948120791</v>
+        <v>6.685132932443281</v>
       </c>
       <c r="E26" t="n">
         <v>0.407737536406165</v>
@@ -1118,7 +1118,7 @@
         <v>0.33080453700509</v>
       </c>
       <c r="H26" t="n">
-        <v>1.248816326530612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1158,19 +1158,19 @@
         <v>0.5122685258570748</v>
       </c>
       <c r="D28" t="n">
-        <v>14.9839539140356</v>
+        <v>13.46472709871721</v>
       </c>
       <c r="E28" t="n">
         <v>0.6058005671943897</v>
       </c>
       <c r="F28" t="n">
-        <v>16.04674771675185</v>
+        <v>16.21315535209136</v>
       </c>
       <c r="G28" t="n">
         <v>0.5143517342462739</v>
       </c>
       <c r="H28" t="n">
-        <v>24.39806358726591</v>
+        <v>20.90590788345292</v>
       </c>
     </row>
     <row r="29">
@@ -1184,13 +1184,13 @@
         <v>0.7663221442143655</v>
       </c>
       <c r="D29" t="n">
-        <v>9.623616549130135</v>
+        <v>8.716315238383538</v>
       </c>
       <c r="E29" t="n">
         <v>0.6511345500194974</v>
       </c>
       <c r="F29" t="n">
-        <v>11.21509334565295</v>
+        <v>11.02176254233682</v>
       </c>
       <c r="G29" t="n">
         <v>0.4916746178079979</v>
@@ -1216,7 +1216,7 @@
         <v>0.5128216287319627</v>
       </c>
       <c r="F30" t="n">
-        <v>12.7630719600824</v>
+        <v>12.93289795261927</v>
       </c>
       <c r="G30" t="n">
         <v>0.3677289973754618</v>
@@ -1372,7 +1372,7 @@
         <v>0.6183782848432472</v>
       </c>
       <c r="F36" t="n">
-        <v>10.37290824506376</v>
+        <v>9.433320276543892</v>
       </c>
       <c r="G36" t="n">
         <v>0.3527046235310135</v>
@@ -1418,7 +1418,7 @@
         <v>0.5007891853262519</v>
       </c>
       <c r="D38" t="n">
-        <v>11.43332705996734</v>
+        <v>12.30925891070239</v>
       </c>
       <c r="E38" t="n">
         <v>0.3459870625747206</v>
@@ -1522,7 +1522,7 @@
         <v>0.5107715976933794</v>
       </c>
       <c r="D42" t="n">
-        <v>8.568430032442029</v>
+        <v>9.14826803057181</v>
       </c>
       <c r="E42" t="n">
         <v>0.3853280408616209</v>
@@ -1548,7 +1548,7 @@
         <v>0.5061803338719197</v>
       </c>
       <c r="D43" t="n">
-        <v>8.42402797608413</v>
+        <v>7.785394533964918</v>
       </c>
       <c r="E43" t="n">
         <v>0.3061354266885025</v>
@@ -1580,7 +1580,7 @@
         <v>0.5151697104810082</v>
       </c>
       <c r="F44" t="n">
-        <v>15.1125909636716</v>
+        <v>15.22847006927363</v>
       </c>
       <c r="G44" t="n">
         <v>0.3436831231167</v>
@@ -1632,7 +1632,7 @@
         <v>0.5263746358322335</v>
       </c>
       <c r="F46" t="n">
-        <v>12.34374029315278</v>
+        <v>13.12911672482775</v>
       </c>
       <c r="G46" t="n">
         <v>0.3741009027169215</v>
@@ -1652,7 +1652,7 @@
         <v>0.5679214303685101</v>
       </c>
       <c r="D47" t="n">
-        <v>5.662419169599591</v>
+        <v>6.071518449171045</v>
       </c>
       <c r="E47" t="n">
         <v>0.4598389629746788</v>
@@ -1730,13 +1730,13 @@
         <v>0.6207002923985019</v>
       </c>
       <c r="D50" t="n">
-        <v>9.594252064755237</v>
+        <v>9.983125518935733</v>
       </c>
       <c r="E50" t="n">
         <v>0.5621483214849607</v>
       </c>
       <c r="F50" t="n">
-        <v>11.19689437103571</v>
+        <v>11.39980887565195</v>
       </c>
       <c r="G50" t="n">
         <v>0.2210515128665488</v>
@@ -1782,13 +1782,13 @@
         <v>0.5860522238646942</v>
       </c>
       <c r="D52" t="n">
-        <v>6.973722488939631</v>
+        <v>7.425918480811129</v>
       </c>
       <c r="E52" t="n">
         <v>0.5348798459837473</v>
       </c>
       <c r="F52" t="n">
-        <v>12.53958982402227</v>
+        <v>11.70120900752674</v>
       </c>
       <c r="G52" t="n">
         <v>0.371634163888336</v>
@@ -1846,7 +1846,7 @@
         <v>0.6726845754803775</v>
       </c>
       <c r="H54" t="n">
-        <v>7.047367889286249</v>
+        <v>6.801989817016921</v>
       </c>
     </row>
     <row r="55">
@@ -1860,13 +1860,13 @@
         <v>0.5087030964118883</v>
       </c>
       <c r="D55" t="n">
-        <v>5.685469425399667</v>
+        <v>5.694070093921018</v>
       </c>
       <c r="E55" t="n">
         <v>0.5391055088830105</v>
       </c>
       <c r="F55" t="n">
-        <v>11.51651159827276</v>
+        <v>11.67050839258256</v>
       </c>
       <c r="G55" t="n">
         <v>0.4483021621678856</v>
@@ -1886,7 +1886,7 @@
         <v>0.5206813167222832</v>
       </c>
       <c r="D56" t="n">
-        <v>5.00104623760755</v>
+        <v>5.321546887048041</v>
       </c>
       <c r="E56" t="n">
         <v>0.3441178931570602</v>
@@ -1944,7 +1944,7 @@
         <v>0.5612867851364867</v>
       </c>
       <c r="F58" t="n">
-        <v>9.514869313186814</v>
+        <v>9.550694083470509</v>
       </c>
       <c r="G58" t="n">
         <v>0.4107090321467455</v>
@@ -1970,7 +1970,7 @@
         <v>0.5264154340769109</v>
       </c>
       <c r="F59" t="n">
-        <v>9.036705473855715</v>
+        <v>8.228763813027252</v>
       </c>
       <c r="G59" t="n">
         <v>0.34631074076433</v>
@@ -2068,7 +2068,7 @@
         <v>0.6620267834049166</v>
       </c>
       <c r="D63" t="n">
-        <v>6.804714845684675</v>
+        <v>6.441615413080733</v>
       </c>
       <c r="E63" t="n">
         <v>0.4721776988205228</v>
@@ -2100,7 +2100,7 @@
         <v>0.5636649198842051</v>
       </c>
       <c r="F64" t="n">
-        <v>10.43160928697556</v>
+        <v>10.15484483233154</v>
       </c>
       <c r="G64" t="n">
         <v>0.3168808233511737</v>
@@ -2126,7 +2126,7 @@
         <v>0.5976521481775311</v>
       </c>
       <c r="F65" t="n">
-        <v>14.58753085782386</v>
+        <v>13.54269763466167</v>
       </c>
       <c r="G65" t="n">
         <v>0.4832378782813381</v>
@@ -2152,7 +2152,7 @@
         <v>0.5985219991501556</v>
       </c>
       <c r="F66" t="n">
-        <v>13.18336427714808</v>
+        <v>12.53635013824295</v>
       </c>
       <c r="G66" t="n">
         <v>0.4188142678914387</v>
@@ -2172,7 +2172,7 @@
         <v>0.6164940375412854</v>
       </c>
       <c r="D67" t="n">
-        <v>7.339203983784364</v>
+        <v>6.676489320745494</v>
       </c>
       <c r="E67" t="n">
         <v>0.4349793782073612</v>
@@ -2198,7 +2198,7 @@
         <v>0.6100619465135034</v>
       </c>
       <c r="D68" t="n">
-        <v>16.37155666294033</v>
+        <v>17.04896501345912</v>
       </c>
       <c r="E68" t="n">
         <v>0.4078671958697458</v>
@@ -2210,7 +2210,7 @@
         <v>0.2901788369973248</v>
       </c>
       <c r="H68" t="n">
-        <v>0.04737460317460317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2230,7 +2230,7 @@
         <v>0.6218445962785817</v>
       </c>
       <c r="F69" t="n">
-        <v>13.65778723493674</v>
+        <v>12.46852246380108</v>
       </c>
       <c r="G69" t="n">
         <v>0.3428037182617901</v>
@@ -2262,7 +2262,7 @@
         <v>0.5980994107689096</v>
       </c>
       <c r="H70" t="n">
-        <v>26.79753139572321</v>
+        <v>26.56971262691361</v>
       </c>
     </row>
     <row r="71">
@@ -2276,7 +2276,7 @@
         <v>0.5218277358185043</v>
       </c>
       <c r="D71" t="n">
-        <v>5.507262240224168</v>
+        <v>4.987030329873893</v>
       </c>
       <c r="E71" t="n">
         <v>0.4856681090995613</v>
@@ -2334,7 +2334,7 @@
         <v>0.6259693936520301</v>
       </c>
       <c r="F73" t="n">
-        <v>9.930287347464045</v>
+        <v>11.07570360459471</v>
       </c>
       <c r="G73" t="n">
         <v>0.3816408559476797</v>
@@ -2354,7 +2354,7 @@
         <v>0.5908353953718286</v>
       </c>
       <c r="D74" t="n">
-        <v>5.796613511373218</v>
+        <v>5.805609453481086</v>
       </c>
       <c r="E74" t="n">
         <v>0.4774548567813152</v>
@@ -2418,7 +2418,7 @@
         <v>0.3255059116434433</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1.749325510204082</v>
       </c>
     </row>
     <row r="77">
@@ -2470,7 +2470,7 @@
         <v>0.3264294253077367</v>
       </c>
       <c r="H78" t="n">
-        <v>0.001428571428571429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -2522,7 +2522,7 @@
         <v>0.5233520305886065</v>
       </c>
       <c r="H80" t="n">
-        <v>10.00007885841289</v>
+        <v>9.316274103089368</v>
       </c>
     </row>
     <row r="81">
@@ -2536,7 +2536,7 @@
         <v>0.6514418223853168</v>
       </c>
       <c r="D81" t="n">
-        <v>13.07115935115975</v>
+        <v>12.31207525260425</v>
       </c>
       <c r="E81" t="n">
         <v>0.4224989304803206</v>
@@ -2614,7 +2614,7 @@
         <v>0.5056979966132648</v>
       </c>
       <c r="D84" t="n">
-        <v>7.857169315256114</v>
+        <v>7.04977975098723</v>
       </c>
       <c r="E84" t="n">
         <v>0.3622701565514986</v>
@@ -2640,13 +2640,13 @@
         <v>0.5274770162805688</v>
       </c>
       <c r="D85" t="n">
-        <v>5.482261198722825</v>
+        <v>5.927148539830072</v>
       </c>
       <c r="E85" t="n">
         <v>0.5394914766006356</v>
       </c>
       <c r="F85" t="n">
-        <v>11.65995308753572</v>
+        <v>11.63530525322221</v>
       </c>
       <c r="G85" t="n">
         <v>0.3458198488380242</v>
@@ -2692,13 +2692,13 @@
         <v>0.5145744897165857</v>
       </c>
       <c r="D87" t="n">
-        <v>11.72409592257693</v>
+        <v>10.38349451900953</v>
       </c>
       <c r="E87" t="n">
         <v>0.5028305259782241</v>
       </c>
       <c r="F87" t="n">
-        <v>8.987128300409905</v>
+        <v>9.071114118592657</v>
       </c>
       <c r="G87" t="n">
         <v>0.3924734239318817</v>
@@ -2796,7 +2796,7 @@
         <v>0.5042024965066072</v>
       </c>
       <c r="D91" t="n">
-        <v>12.01567783408308</v>
+        <v>11.53855875670003</v>
       </c>
       <c r="E91" t="n">
         <v>0.4741222376861298</v>
@@ -2808,7 +2808,7 @@
         <v>0.5002928921497766</v>
       </c>
       <c r="H91" t="n">
-        <v>9.113354043329453</v>
+        <v>10.23113961316461</v>
       </c>
     </row>
     <row r="92">
@@ -2834,7 +2834,7 @@
         <v>0.3473117658821372</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>0.07620765306122448</v>
       </c>
     </row>
     <row r="93">
@@ -2906,7 +2906,7 @@
         <v>0.5930881742306499</v>
       </c>
       <c r="F95" t="n">
-        <v>15.49900779634115</v>
+        <v>14.78219264171607</v>
       </c>
       <c r="G95" t="n">
         <v>0.2446760913007039</v>
@@ -2958,7 +2958,7 @@
         <v>0.5571531775254868</v>
       </c>
       <c r="F97" t="n">
-        <v>13.95985172130796</v>
+        <v>14.56554820117849</v>
       </c>
       <c r="G97" t="n">
         <v>0.4006718337694719</v>
@@ -3016,7 +3016,7 @@
         <v>0.3400804836561533</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>0.07620765306122448</v>
       </c>
     </row>
     <row r="100">
@@ -3062,7 +3062,7 @@
         <v>0.5692293440454754</v>
       </c>
       <c r="F101" t="n">
-        <v>10.60140489858467</v>
+        <v>9.765244145703154</v>
       </c>
       <c r="G101" t="n">
         <v>0.3338815527251179</v>
@@ -3140,7 +3140,7 @@
         <v>0.5538980767147073</v>
       </c>
       <c r="F104" t="n">
-        <v>12.03043936703438</v>
+        <v>10.11963429933794</v>
       </c>
       <c r="G104" t="n">
         <v>0.4119131728658665</v>
@@ -3172,7 +3172,7 @@
         <v>0.9721631134893985</v>
       </c>
       <c r="H105" t="n">
-        <v>20.10090991623514</v>
+        <v>19.22702109337571</v>
       </c>
     </row>
     <row r="106">
@@ -3192,7 +3192,7 @@
         <v>0.5190620176244367</v>
       </c>
       <c r="F106" t="n">
-        <v>9.847706740422275</v>
+        <v>8.790681046255806</v>
       </c>
       <c r="G106" t="n">
         <v>0.4101747962454029</v>
@@ -3212,7 +3212,7 @@
         <v>0.5233425973107656</v>
       </c>
       <c r="D107" t="n">
-        <v>11.47143011880103</v>
+        <v>11.20937365982193</v>
       </c>
       <c r="E107" t="n">
         <v>0.2327770606378536</v>
@@ -3264,13 +3264,13 @@
         <v>0.5331248586201653</v>
       </c>
       <c r="D109" t="n">
-        <v>7.884493815841898</v>
+        <v>7.779141951587158</v>
       </c>
       <c r="E109" t="n">
         <v>0.5544921548691162</v>
       </c>
       <c r="F109" t="n">
-        <v>18.3202535509705</v>
+        <v>17.93350939000688</v>
       </c>
       <c r="G109" t="n">
         <v>0.457312460033309</v>
@@ -3400,7 +3400,7 @@
         <v>0.5629860243262934</v>
       </c>
       <c r="F114" t="n">
-        <v>13.95593162458888</v>
+        <v>12.3383032932873</v>
       </c>
       <c r="G114" t="n">
         <v>0.3667348603861122</v>
@@ -3530,7 +3530,7 @@
         <v>0.5137688377049067</v>
       </c>
       <c r="F119" t="n">
-        <v>12.6540271183351</v>
+        <v>13.41837295268488</v>
       </c>
       <c r="G119" t="n">
         <v>0.3165115528999399</v>
@@ -3576,7 +3576,7 @@
         <v>0.529776216942485</v>
       </c>
       <c r="D121" t="n">
-        <v>5.025972331942293</v>
+        <v>5.500487604786623</v>
       </c>
       <c r="E121" t="n">
         <v>0.2752926803200517</v>
@@ -3614,7 +3614,7 @@
         <v>0.6640991835136337</v>
       </c>
       <c r="H122" t="n">
-        <v>9.056138486623023</v>
+        <v>8.955960138073081</v>
       </c>
     </row>
     <row r="123">
@@ -3660,7 +3660,7 @@
         <v>0.6225563490953386</v>
       </c>
       <c r="F124" t="n">
-        <v>9.272684517698259</v>
+        <v>10.02887941282253</v>
       </c>
       <c r="G124" t="n">
         <v>0.4186304231002225</v>
@@ -3706,13 +3706,13 @@
         <v>0.5044572111050732</v>
       </c>
       <c r="D126" t="n">
-        <v>10.35627785440749</v>
+        <v>8.751157381433632</v>
       </c>
       <c r="E126" t="n">
         <v>0.5643077213678743</v>
       </c>
       <c r="F126" t="n">
-        <v>12.21327051332035</v>
+        <v>11.22217235313998</v>
       </c>
       <c r="G126" t="n">
         <v>0.3128871368646166</v>
@@ -3732,7 +3732,7 @@
         <v>0.5432954304351919</v>
       </c>
       <c r="D127" t="n">
-        <v>35.64103352974654</v>
+        <v>30.02397773879007</v>
       </c>
       <c r="E127" t="n">
         <v>0.2441257665732623</v>
@@ -3758,7 +3758,7 @@
         <v>0.5414383451477056</v>
       </c>
       <c r="D128" t="n">
-        <v>9.908677368405247</v>
+        <v>9.124271512060737</v>
       </c>
       <c r="E128" t="n">
         <v>0.4517475750418631</v>
@@ -3796,7 +3796,7 @@
         <v>0.5477362980336123</v>
       </c>
       <c r="H129" t="n">
-        <v>3.169929352079411</v>
+        <v>3.875424513177065</v>
       </c>
     </row>
     <row r="130">
@@ -3810,13 +3810,13 @@
         <v>0.5546103825036177</v>
       </c>
       <c r="D130" t="n">
-        <v>6.936164693328676</v>
+        <v>6.142021094250458</v>
       </c>
       <c r="E130" t="n">
         <v>0.5172122089654115</v>
       </c>
       <c r="F130" t="n">
-        <v>10.9189959028868</v>
+        <v>10.0992448262685</v>
       </c>
       <c r="G130" t="n">
         <v>0.3452626387400322</v>
@@ -3842,7 +3842,7 @@
         <v>0.5134157288688064</v>
       </c>
       <c r="F131" t="n">
-        <v>11.05614876022056</v>
+        <v>9.771885203970005</v>
       </c>
       <c r="G131" t="n">
         <v>0.3331138499199156</v>
@@ -3888,7 +3888,7 @@
         <v>0.6283668972367311</v>
       </c>
       <c r="D133" t="n">
-        <v>5.259120279065819</v>
+        <v>6.104152394048048</v>
       </c>
       <c r="E133" t="n">
         <v>0.3885416322135017</v>
@@ -3926,7 +3926,7 @@
         <v>0.3314167072717558</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>0.07620765306122448</v>
       </c>
     </row>
     <row r="135">
@@ -3992,7 +3992,7 @@
         <v>0.5080129452856375</v>
       </c>
       <c r="D137" t="n">
-        <v>5.114897805820171</v>
+        <v>4.636561560250488</v>
       </c>
       <c r="E137" t="n">
         <v>0.3532011230704714</v>
@@ -4018,7 +4018,7 @@
         <v>0.5257532488105199</v>
       </c>
       <c r="D138" t="n">
-        <v>10.52469809386288</v>
+        <v>10.62864481405703</v>
       </c>
       <c r="E138" t="n">
         <v>0.256921295435689</v>
@@ -4082,7 +4082,7 @@
         <v>0.3402454789109825</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>0.07620765306122448</v>
       </c>
     </row>
     <row r="141">
@@ -4128,7 +4128,7 @@
         <v>0.5194107033151418</v>
       </c>
       <c r="F142" t="n">
-        <v>14.62482085995237</v>
+        <v>16.45508096324428</v>
       </c>
       <c r="G142" t="n">
         <v>0.3542814488485296</v>
@@ -4174,7 +4174,7 @@
         <v>0.5536261632008403</v>
       </c>
       <c r="D144" t="n">
-        <v>9.044509146773594</v>
+        <v>7.48440271001787</v>
       </c>
       <c r="E144" t="n">
         <v>0.4318649959824177</v>
@@ -4206,7 +4206,7 @@
         <v>0.5509365125845868</v>
       </c>
       <c r="F145" t="n">
-        <v>17.94904832318359</v>
+        <v>18.44380865071437</v>
       </c>
       <c r="G145" t="n">
         <v>0.3290628146907655</v>
@@ -4310,7 +4310,7 @@
         <v>0.5387050456805375</v>
       </c>
       <c r="F149" t="n">
-        <v>9.65347567986994</v>
+        <v>9.381698648503113</v>
       </c>
       <c r="G149" t="n">
         <v>0.4035929647290932</v>
@@ -4356,13 +4356,13 @@
         <v>0.5953295162017537</v>
       </c>
       <c r="D151" t="n">
-        <v>34.8634092602565</v>
+        <v>26.79343669163606</v>
       </c>
       <c r="E151" t="n">
         <v>0.5334562988915253</v>
       </c>
       <c r="F151" t="n">
-        <v>7.863981162042323</v>
+        <v>9.562376183027407</v>
       </c>
       <c r="G151" t="n">
         <v>0.2285170676009768</v>
@@ -4388,7 +4388,7 @@
         <v>0.5108345046293731</v>
       </c>
       <c r="F152" t="n">
-        <v>8.336485075945879</v>
+        <v>7.247699034655819</v>
       </c>
       <c r="G152" t="n">
         <v>0.3690501474188854</v>
@@ -4420,7 +4420,7 @@
         <v>0.325323492825863</v>
       </c>
       <c r="H153" t="n">
-        <v>0.04737460317460317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -4460,7 +4460,7 @@
         <v>0.5115332777497904</v>
       </c>
       <c r="D155" t="n">
-        <v>9.677473763686578</v>
+        <v>9.938922228322786</v>
       </c>
       <c r="E155" t="n">
         <v>0.3572136480359949</v>
@@ -4524,7 +4524,7 @@
         <v>0.3625136160707739</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>1.749325510204082</v>
       </c>
     </row>
     <row r="158">
@@ -4538,7 +4538,7 @@
         <v>0.5054630786878724</v>
       </c>
       <c r="D158" t="n">
-        <v>7.983706047578023</v>
+        <v>6.178366061726165</v>
       </c>
       <c r="E158" t="n">
         <v>0.4507009476489739</v>
@@ -4596,7 +4596,7 @@
         <v>0.517176745378604</v>
       </c>
       <c r="F160" t="n">
-        <v>10.7944949191395</v>
+        <v>10.41116827107027</v>
       </c>
       <c r="G160" t="n">
         <v>0.3378863516097461</v>
@@ -4622,7 +4622,7 @@
         <v>0.5334017383164571</v>
       </c>
       <c r="F161" t="n">
-        <v>10.141674896869</v>
+        <v>11.45007481341575</v>
       </c>
       <c r="G161" t="n">
         <v>0.4124182241438475</v>
@@ -4654,7 +4654,7 @@
         <v>0.3533913211884396</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>0.07620765306122448</v>
       </c>
     </row>
     <row r="163">
@@ -4668,7 +4668,7 @@
         <v>0.584551169927132</v>
       </c>
       <c r="D163" t="n">
-        <v>10.04059392624932</v>
+        <v>10.42214232552801</v>
       </c>
       <c r="E163" t="n">
         <v>0.3668795299742772</v>
@@ -4700,7 +4700,7 @@
         <v>0.5933697082603094</v>
       </c>
       <c r="F164" t="n">
-        <v>11.88645648218639</v>
+        <v>12.68801518369219</v>
       </c>
       <c r="G164" t="n">
         <v>0.3585741235617657</v>
@@ -4720,7 +4720,7 @@
         <v>0.5401546287159944</v>
       </c>
       <c r="D165" t="n">
-        <v>11.00091656358236</v>
+        <v>13.06511136185586</v>
       </c>
       <c r="E165" t="n">
         <v>0.4658553962380859</v>
@@ -4746,7 +4746,7 @@
         <v>0.5100266479195782</v>
       </c>
       <c r="D166" t="n">
-        <v>13.02423723314486</v>
+        <v>12.75640973420758</v>
       </c>
       <c r="E166" t="n">
         <v>0.262254996486304</v>
@@ -4772,7 +4772,7 @@
         <v>0.5372155994847192</v>
       </c>
       <c r="D167" t="n">
-        <v>3.674225914794138</v>
+        <v>3.238625729690651</v>
       </c>
       <c r="E167" t="n">
         <v>0.4823629720517286</v>
@@ -4824,13 +4824,13 @@
         <v>0.6247256320361508</v>
       </c>
       <c r="D169" t="n">
-        <v>12.00881048428496</v>
+        <v>10.8468257627596</v>
       </c>
       <c r="E169" t="n">
         <v>0.5591739024335921</v>
       </c>
       <c r="F169" t="n">
-        <v>10.84237408554739</v>
+        <v>9.857288187157145</v>
       </c>
       <c r="G169" t="n">
         <v>0.3879634521504947</v>
@@ -4856,7 +4856,7 @@
         <v>0.5491999721798413</v>
       </c>
       <c r="F170" t="n">
-        <v>17.65646096020926</v>
+        <v>15.76826309042003</v>
       </c>
       <c r="G170" t="n">
         <v>0.4256828309938276</v>
@@ -4928,7 +4928,7 @@
         <v>0.502419708886136</v>
       </c>
       <c r="D173" t="n">
-        <v>11.14762633189888</v>
+        <v>10.95734540579626</v>
       </c>
       <c r="E173" t="n">
         <v>0.2438121468769203</v>
@@ -4940,7 +4940,7 @@
         <v>0.2669570371067163</v>
       </c>
       <c r="H173" t="n">
-        <v>0.04737460317460317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -4980,13 +4980,13 @@
         <v>0.5316192950368459</v>
       </c>
       <c r="D175" t="n">
-        <v>7.801833021940424</v>
+        <v>7.244219595960662</v>
       </c>
       <c r="E175" t="n">
         <v>0.5295436034234791</v>
       </c>
       <c r="F175" t="n">
-        <v>10.66577589286027</v>
+        <v>11.02051985914153</v>
       </c>
       <c r="G175" t="n">
         <v>0.3450907455629851</v>
@@ -5032,7 +5032,7 @@
         <v>0.510649329609159</v>
       </c>
       <c r="D177" t="n">
-        <v>13.71487942305958</v>
+        <v>12.0193937634233</v>
       </c>
       <c r="E177" t="n">
         <v>0.4032449908579379</v>
@@ -5096,7 +5096,7 @@
         <v>0.3463922722277097</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>0.07620765306122448</v>
       </c>
     </row>
     <row r="180">
@@ -5116,7 +5116,7 @@
         <v>0.5803378859744222</v>
       </c>
       <c r="F180" t="n">
-        <v>12.32368823578527</v>
+        <v>12.32492641892935</v>
       </c>
       <c r="G180" t="n">
         <v>0.3662909833314336</v>
@@ -5214,7 +5214,7 @@
         <v>0.5336192535106741</v>
       </c>
       <c r="D184" t="n">
-        <v>8.043038831955762</v>
+        <v>9.076431928626443</v>
       </c>
       <c r="E184" t="n">
         <v>0.488098686352585</v>
@@ -5324,7 +5324,7 @@
         <v>0.5149010414953299</v>
       </c>
       <c r="F188" t="n">
-        <v>11.01528547746896</v>
+        <v>11.37634340416528</v>
       </c>
       <c r="G188" t="n">
         <v>0.3464500685678218</v>
@@ -5344,7 +5344,7 @@
         <v>0.5010658328685401</v>
       </c>
       <c r="D189" t="n">
-        <v>17.65989531247158</v>
+        <v>17.76576768683665</v>
       </c>
       <c r="E189" t="n">
         <v>0.3729539259085029</v>
@@ -5356,7 +5356,7 @@
         <v>0.391427254441205</v>
       </c>
       <c r="H189" t="n">
-        <v>0.001428571428571429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -5370,13 +5370,13 @@
         <v>0.5597764754016645</v>
       </c>
       <c r="D190" t="n">
-        <v>7.661713475590995</v>
+        <v>7.893827364851171</v>
       </c>
       <c r="E190" t="n">
         <v>0.6030647291837425</v>
       </c>
       <c r="F190" t="n">
-        <v>9.951922534281195</v>
+        <v>10.16350894562195</v>
       </c>
       <c r="G190" t="n">
         <v>0.2659827757719317</v>
@@ -5454,7 +5454,7 @@
         <v>0.5814735768765497</v>
       </c>
       <c r="F193" t="n">
-        <v>14.24559747443033</v>
+        <v>16.48606702280738</v>
       </c>
       <c r="G193" t="n">
         <v>0.3737372447852474</v>
@@ -5500,7 +5500,7 @@
         <v>0.5419387062996215</v>
       </c>
       <c r="D195" t="n">
-        <v>10.58735945250113</v>
+        <v>10.94514971289197</v>
       </c>
       <c r="E195" t="n">
         <v>0.3028747804054743</v>
@@ -5558,7 +5558,7 @@
         <v>0.5217001467125962</v>
       </c>
       <c r="F197" t="n">
-        <v>12.93715921547493</v>
+        <v>12.59896309601221</v>
       </c>
       <c r="G197" t="n">
         <v>0.3661673081983026</v>
@@ -5578,7 +5578,7 @@
         <v>0.5025017529612259</v>
       </c>
       <c r="D198" t="n">
-        <v>9.945506081014829</v>
+        <v>8.633260178270607</v>
       </c>
       <c r="E198" t="n">
         <v>0.3890197726758561</v>
@@ -5610,7 +5610,7 @@
         <v>0.5754836356808165</v>
       </c>
       <c r="F199" t="n">
-        <v>13.78848409459471</v>
+        <v>12.52454725013159</v>
       </c>
       <c r="G199" t="n">
         <v>0.3269923577210804</v>
@@ -5662,13 +5662,13 @@
         <v>0.5273866634376514</v>
       </c>
       <c r="F201" t="n">
-        <v>11.12754469193766</v>
+        <v>10.9136307512568</v>
       </c>
       <c r="G201" t="n">
         <v>0.3719015190233196</v>
       </c>
       <c r="H201" t="n">
-        <v>7.413749421768707</v>
+        <v>3.074072344322344</v>
       </c>
     </row>
     <row r="202">
@@ -5844,7 +5844,7 @@
         <v>0.500532018215728</v>
       </c>
       <c r="F208" t="n">
-        <v>9.751196001847987</v>
+        <v>8.740822753664405</v>
       </c>
       <c r="G208" t="n">
         <v>0.4365589079387469</v>
@@ -5864,7 +5864,7 @@
         <v>0.6880765937765542</v>
       </c>
       <c r="D209" t="n">
-        <v>7.302791568653647</v>
+        <v>7.230292208747524</v>
       </c>
       <c r="E209" t="n">
         <v>0.2516387303972138</v>
@@ -5896,13 +5896,13 @@
         <v>0.5346804361522653</v>
       </c>
       <c r="F210" t="n">
-        <v>8.858447771543933</v>
+        <v>8.737523398311248</v>
       </c>
       <c r="G210" t="n">
         <v>0.2928926436250758</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>0.07620765306122448</v>
       </c>
     </row>
     <row r="211">
@@ -5916,7 +5916,7 @@
         <v>0.5343065317743896</v>
       </c>
       <c r="D211" t="n">
-        <v>6.560176357786851</v>
+        <v>6.69115801598883</v>
       </c>
       <c r="E211" t="n">
         <v>0.4384537659573901</v>
@@ -5928,7 +5928,7 @@
         <v>0.8044000157460889</v>
       </c>
       <c r="H211" t="n">
-        <v>6.140620459177845</v>
+        <v>6.578219189451423</v>
       </c>
     </row>
     <row r="212">
@@ -5974,7 +5974,7 @@
         <v>0.5036327374863467</v>
       </c>
       <c r="F213" t="n">
-        <v>16.48104952964402</v>
+        <v>16.39278972416851</v>
       </c>
       <c r="G213" t="n">
         <v>0.1777939613145923</v>
@@ -5994,7 +5994,7 @@
         <v>0.5819218083590655</v>
       </c>
       <c r="D214" t="n">
-        <v>31.67984113702052</v>
+        <v>25.30845103014439</v>
       </c>
       <c r="E214" t="n">
         <v>0.3915673061638792</v>
@@ -6020,7 +6020,7 @@
         <v>0.5347584850554913</v>
       </c>
       <c r="D215" t="n">
-        <v>10.87961209464147</v>
+        <v>12.57843123457649</v>
       </c>
       <c r="E215" t="n">
         <v>0.310883933803201</v>
@@ -6130,7 +6130,7 @@
         <v>0.5186389486507832</v>
       </c>
       <c r="F219" t="n">
-        <v>13.67653323656736</v>
+        <v>13.69986505476025</v>
       </c>
       <c r="G219" t="n">
         <v>0.3065607249375707</v>
@@ -6188,7 +6188,7 @@
         <v>0.3737825358470434</v>
       </c>
       <c r="H221" t="n">
-        <v>0.04737460317460317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
@@ -6280,7 +6280,7 @@
         <v>0.5847408782509569</v>
       </c>
       <c r="D225" t="n">
-        <v>7.272196534122632</v>
+        <v>8.285387839396833</v>
       </c>
       <c r="E225" t="n">
         <v>0.3219258212617171</v>
@@ -6306,13 +6306,13 @@
         <v>0.5514568752347406</v>
       </c>
       <c r="D226" t="n">
-        <v>8.496392097910928</v>
+        <v>8.973522765530181</v>
       </c>
       <c r="E226" t="n">
         <v>0.546374728512418</v>
       </c>
       <c r="F226" t="n">
-        <v>10.48715612285532</v>
+        <v>9.199834824733795</v>
       </c>
       <c r="G226" t="n">
         <v>0.4167978415371459</v>
@@ -6332,7 +6332,7 @@
         <v>0.5457245471727151</v>
       </c>
       <c r="D227" t="n">
-        <v>5.054410929076044</v>
+        <v>4.344486717275391</v>
       </c>
       <c r="E227" t="n">
         <v>0.3818480056505042</v>
@@ -6390,7 +6390,7 @@
         <v>0.5449870997601661</v>
       </c>
       <c r="F229" t="n">
-        <v>10.36431895573098</v>
+        <v>10.06550308144832</v>
       </c>
       <c r="G229" t="n">
         <v>0.3870833452972985</v>
@@ -6436,7 +6436,7 @@
         <v>0.5848987854479093</v>
       </c>
       <c r="D231" t="n">
-        <v>14.42487635813898</v>
+        <v>12.83128925576681</v>
       </c>
       <c r="E231" t="n">
         <v>0.3068966420807853</v>
@@ -6448,7 +6448,7 @@
         <v>0.3879456870536206</v>
       </c>
       <c r="H231" t="n">
-        <v>0.04737460317460317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
@@ -6488,7 +6488,7 @@
         <v>0.5760512770175172</v>
       </c>
       <c r="D233" t="n">
-        <v>6.785017118451592</v>
+        <v>7.807404189699285</v>
       </c>
       <c r="E233" t="n">
         <v>0.3272992877128564</v>
@@ -6566,13 +6566,13 @@
         <v>0.5267302872384259</v>
       </c>
       <c r="D236" t="n">
-        <v>7.606860387864541</v>
+        <v>7.061099087406622</v>
       </c>
       <c r="E236" t="n">
         <v>0.5826215494961254</v>
       </c>
       <c r="F236" t="n">
-        <v>7.895633756021025</v>
+        <v>7.85235844546782</v>
       </c>
       <c r="G236" t="n">
         <v>0.430206854506325</v>
@@ -6670,7 +6670,7 @@
         <v>0.4162643283797695</v>
       </c>
       <c r="D240" t="n">
-        <v>2.945508067245254</v>
+        <v>2.973796279761905</v>
       </c>
       <c r="E240" t="n">
         <v>0.4981715005762307</v>
@@ -6722,13 +6722,13 @@
         <v>0.5365900461176882</v>
       </c>
       <c r="D242" t="n">
-        <v>9.488582018888851</v>
+        <v>9.572114727691869</v>
       </c>
       <c r="E242" t="n">
         <v>0.5201115201569725</v>
       </c>
       <c r="F242" t="n">
-        <v>10.46839198559433</v>
+        <v>9.956831065182483</v>
       </c>
       <c r="G242" t="n">
         <v>0.3406735967278207</v>
@@ -6774,7 +6774,7 @@
         <v>0.5038049682544483</v>
       </c>
       <c r="D244" t="n">
-        <v>10.40680471870613</v>
+        <v>10.49400670124096</v>
       </c>
       <c r="E244" t="n">
         <v>0.4632798054506373</v>
@@ -6786,7 +6786,7 @@
         <v>0.5903425533827956</v>
       </c>
       <c r="H244" t="n">
-        <v>6.309858775430919</v>
+        <v>6.279656092564523</v>
       </c>
     </row>
     <row r="245">
@@ -6826,7 +6826,7 @@
         <v>0.6871248131577887</v>
       </c>
       <c r="D246" t="n">
-        <v>6.092033766237209</v>
+        <v>6.768156849972604</v>
       </c>
       <c r="E246" t="n">
         <v>0.279762843771264</v>
@@ -6852,13 +6852,13 @@
         <v>0.5750635839974418</v>
       </c>
       <c r="D247" t="n">
-        <v>33.70125487425026</v>
+        <v>28.41673646179346</v>
       </c>
       <c r="E247" t="n">
         <v>0.6263214859392893</v>
       </c>
       <c r="F247" t="n">
-        <v>12.51417567032722</v>
+        <v>11.42152493853667</v>
       </c>
       <c r="G247" t="n">
         <v>0.3965792915814312</v>
@@ -6884,7 +6884,7 @@
         <v>0.52550609762393</v>
       </c>
       <c r="F248" t="n">
-        <v>17.07045356351864</v>
+        <v>17.38490406016982</v>
       </c>
       <c r="G248" t="n">
         <v>0.4417220243012234</v>
@@ -6956,7 +6956,7 @@
         <v>0.5231039054625274</v>
       </c>
       <c r="D251" t="n">
-        <v>7.065413567031271</v>
+        <v>6.5194412357994</v>
       </c>
       <c r="E251" t="n">
         <v>0.2973465152161372</v>
@@ -7020,7 +7020,7 @@
         <v>0.3184588050479116</v>
       </c>
       <c r="H253" t="n">
-        <v>0.001428571428571429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
@@ -7060,19 +7060,19 @@
         <v>0.5006943769276507</v>
       </c>
       <c r="D255" t="n">
-        <v>5.68505865967744</v>
+        <v>5.558522147797541</v>
       </c>
       <c r="E255" t="n">
         <v>0.6893569060647998</v>
       </c>
       <c r="F255" t="n">
-        <v>12.82678942290844</v>
+        <v>11.99704928156927</v>
       </c>
       <c r="G255" t="n">
         <v>0.512100309674857</v>
       </c>
       <c r="H255" t="n">
-        <v>33.58281709312513</v>
+        <v>41.78227907219763</v>
       </c>
     </row>
     <row r="256">
@@ -7086,13 +7086,13 @@
         <v>0.6352886397261445</v>
       </c>
       <c r="D256" t="n">
-        <v>9.486167956247469</v>
+        <v>10.44413689712628</v>
       </c>
       <c r="E256" t="n">
         <v>0.6652490514912959</v>
       </c>
       <c r="F256" t="n">
-        <v>14.60948949438365</v>
+        <v>14.88369324880098</v>
       </c>
       <c r="G256" t="n">
         <v>0.2942746630705526</v>
@@ -7150,7 +7150,7 @@
         <v>0.3168437868741902</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>0.07620765306122448</v>
       </c>
     </row>
     <row r="259">
@@ -7164,7 +7164,7 @@
         <v>0.5190759956543214</v>
       </c>
       <c r="D259" t="n">
-        <v>7.585613935677709</v>
+        <v>8.173970689019225</v>
       </c>
       <c r="E259" t="n">
         <v>0.3846904528354305</v>
@@ -7190,13 +7190,13 @@
         <v>0.6879840245357349</v>
       </c>
       <c r="D260" t="n">
-        <v>11.80799324579803</v>
+        <v>11.03820161318909</v>
       </c>
       <c r="E260" t="n">
         <v>0.6145327594439014</v>
       </c>
       <c r="F260" t="n">
-        <v>12.47021082779324</v>
+        <v>13.53954621038363</v>
       </c>
       <c r="G260" t="n">
         <v>0.2771432880090537</v>
@@ -7216,7 +7216,7 @@
         <v>0.5813002042588981</v>
       </c>
       <c r="D261" t="n">
-        <v>21.38532470908359</v>
+        <v>13.59675203479565</v>
       </c>
       <c r="E261" t="n">
         <v>0.3264107378356735</v>
@@ -7248,7 +7248,7 @@
         <v>0.5796925144889692</v>
       </c>
       <c r="F262" t="n">
-        <v>11.83864777713254</v>
+        <v>12.5150928171331</v>
       </c>
       <c r="G262" t="n">
         <v>0.3089670308141512</v>
@@ -7274,7 +7274,7 @@
         <v>0.5907726819682017</v>
       </c>
       <c r="F263" t="n">
-        <v>8.335065275419545</v>
+        <v>9.012315196452997</v>
       </c>
       <c r="G263" t="n">
         <v>0.3643892172006779</v>
@@ -7294,13 +7294,13 @@
         <v>0.6273753731167961</v>
       </c>
       <c r="D264" t="n">
-        <v>7.860103089681671</v>
+        <v>7.033194570586701</v>
       </c>
       <c r="E264" t="n">
         <v>0.6014748820908437</v>
       </c>
       <c r="F264" t="n">
-        <v>13.19343790441701</v>
+        <v>14.44639914474414</v>
       </c>
       <c r="G264" t="n">
         <v>0.4693641578573374</v>
@@ -7372,7 +7372,7 @@
         <v>0.514216282061883</v>
       </c>
       <c r="D267" t="n">
-        <v>7.157122792054901</v>
+        <v>7.869885083104041</v>
       </c>
       <c r="E267" t="n">
         <v>0.3452783362527759</v>
@@ -7398,19 +7398,19 @@
         <v>0.2621982317120583</v>
       </c>
       <c r="D268" t="n">
-        <v>0.04685407509157509</v>
+        <v>0.887546925866792</v>
       </c>
       <c r="E268" t="n">
         <v>0.9010848486000123</v>
       </c>
       <c r="F268" t="n">
-        <v>9.571538718103794</v>
+        <v>10.0730964576372</v>
       </c>
       <c r="G268" t="n">
         <v>0.6117189143869394</v>
       </c>
       <c r="H268" t="n">
-        <v>21.16640985118056</v>
+        <v>21.55849861187132</v>
       </c>
     </row>
     <row r="269">
@@ -7476,7 +7476,7 @@
         <v>0.5216304155906941</v>
       </c>
       <c r="D271" t="n">
-        <v>14.08597829469142</v>
+        <v>14.61163962174204</v>
       </c>
       <c r="E271" t="n">
         <v>0.4552132964232498</v>
@@ -7488,7 +7488,7 @@
         <v>0.5167607280062384</v>
       </c>
       <c r="H271" t="n">
-        <v>9.297191970826793</v>
+        <v>9.795826627921931</v>
       </c>
     </row>
     <row r="272">
@@ -7502,7 +7502,7 @@
         <v>0.5249226954347532</v>
       </c>
       <c r="D272" t="n">
-        <v>14.45003303827008</v>
+        <v>15.24531603939222</v>
       </c>
       <c r="E272" t="n">
         <v>0.4968073012916878</v>
@@ -7658,7 +7658,7 @@
         <v>0.5538536772430541</v>
       </c>
       <c r="D278" t="n">
-        <v>9.308104485951782</v>
+        <v>11.55097782005073</v>
       </c>
       <c r="E278" t="n">
         <v>0.206769462941165</v>
@@ -7716,7 +7716,7 @@
         <v>0.5450164032245076</v>
       </c>
       <c r="F280" t="n">
-        <v>14.79159889065417</v>
+        <v>15.9964179145548</v>
       </c>
       <c r="G280" t="n">
         <v>0.4324053165752692</v>
@@ -7788,13 +7788,13 @@
         <v>0.4328694008916911</v>
       </c>
       <c r="D283" t="n">
-        <v>2.241641079059829</v>
+        <v>3.033638555170028</v>
       </c>
       <c r="E283" t="n">
         <v>0.5367613745550621</v>
       </c>
       <c r="F283" t="n">
-        <v>10.46787570687891</v>
+        <v>10.48357146879341</v>
       </c>
       <c r="G283" t="n">
         <v>0.2400712226712207</v>
@@ -7826,7 +7826,7 @@
         <v>0.5269019333658899</v>
       </c>
       <c r="H284" t="n">
-        <v>6.382978219322756</v>
+        <v>9.097952785448681</v>
       </c>
     </row>
     <row r="285">
@@ -7840,7 +7840,7 @@
         <v>0.5270680667789786</v>
       </c>
       <c r="D285" t="n">
-        <v>10.08009853223515</v>
+        <v>9.952110470404651</v>
       </c>
       <c r="E285" t="n">
         <v>0.4384979495025896</v>
@@ -7866,7 +7866,7 @@
         <v>0.5529068542787093</v>
       </c>
       <c r="D286" t="n">
-        <v>4.541902414135556</v>
+        <v>4.709427999281491</v>
       </c>
       <c r="E286" t="n">
         <v>0.4877727177569581</v>
@@ -7892,7 +7892,7 @@
         <v>0.5208900428575337</v>
       </c>
       <c r="D287" t="n">
-        <v>9.858504848444475</v>
+        <v>9.863809584772524</v>
       </c>
       <c r="E287" t="n">
         <v>0.4644337123691472</v>
@@ -7904,7 +7904,7 @@
         <v>0.6433989145082902</v>
       </c>
       <c r="H287" t="n">
-        <v>9.096916271971491</v>
+        <v>13.61236788522985</v>
       </c>
     </row>
     <row r="288">
@@ -7924,13 +7924,13 @@
         <v>0.570415157434824</v>
       </c>
       <c r="F288" t="n">
-        <v>15.01924922100542</v>
+        <v>15.57485327137994</v>
       </c>
       <c r="G288" t="n">
         <v>0.5365196731252174</v>
       </c>
       <c r="H288" t="n">
-        <v>4.424531274737166</v>
+        <v>4.528909569171859</v>
       </c>
     </row>
     <row r="289">
@@ -7944,7 +7944,7 @@
         <v>0.5357407059544189</v>
       </c>
       <c r="D289" t="n">
-        <v>32.88031848846095</v>
+        <v>26.63740772364522</v>
       </c>
       <c r="E289" t="n">
         <v>0.403064904621527</v>
@@ -8002,7 +8002,7 @@
         <v>0.5588338087060137</v>
       </c>
       <c r="F291" t="n">
-        <v>9.153089941100568</v>
+        <v>9.795357771360477</v>
       </c>
       <c r="G291" t="n">
         <v>0.2597535365109405</v>
@@ -8022,13 +8022,13 @@
         <v>0.5373180482267428</v>
       </c>
       <c r="D292" t="n">
-        <v>10.21627193260083</v>
+        <v>9.66777972306863</v>
       </c>
       <c r="E292" t="n">
         <v>0.5089609795820562</v>
       </c>
       <c r="F292" t="n">
-        <v>12.1384190961451</v>
+        <v>11.86247327476539</v>
       </c>
       <c r="G292" t="n">
         <v>0.4837380141610976</v>
@@ -8048,7 +8048,7 @@
         <v>0.4358391722252682</v>
       </c>
       <c r="D293" t="n">
-        <v>4.109866634615384</v>
+        <v>4.246128465433377</v>
       </c>
       <c r="E293" t="n">
         <v>0.3729004300565986</v>
@@ -8100,13 +8100,13 @@
         <v>0.5088847085527494</v>
       </c>
       <c r="D295" t="n">
-        <v>8.330670093279506</v>
+        <v>7.749732180594362</v>
       </c>
       <c r="E295" t="n">
         <v>0.6436882994891108</v>
       </c>
       <c r="F295" t="n">
-        <v>15.69146806245575</v>
+        <v>15.48824948951463</v>
       </c>
       <c r="G295" t="n">
         <v>0.4357516452988674</v>
@@ -8126,7 +8126,7 @@
         <v>0.3982988512862395</v>
       </c>
       <c r="D296" t="n">
-        <v>1.673977380952381</v>
+        <v>3.589078686779491</v>
       </c>
       <c r="E296" t="n">
         <v>0.3199810277300998</v>
@@ -8138,7 +8138,7 @@
         <v>0.8029647490696856</v>
       </c>
       <c r="H296" t="n">
-        <v>27.61758187719028</v>
+        <v>23.32105175793161</v>
       </c>
     </row>
     <row r="297">
@@ -8320,7 +8320,7 @@
         <v>0.5835137420129292</v>
       </c>
       <c r="H303" t="n">
-        <v>6.012178832374443</v>
+        <v>12.12365808398884</v>
       </c>
     </row>
     <row r="304">
@@ -8412,7 +8412,7 @@
         <v>0.5255521634312458</v>
       </c>
       <c r="D307" t="n">
-        <v>6.411527587759462</v>
+        <v>7.121577178005286</v>
       </c>
       <c r="E307" t="n">
         <v>0.3549363190057454</v>
@@ -8438,13 +8438,13 @@
         <v>0.5607337926512082</v>
       </c>
       <c r="D308" t="n">
-        <v>7.977189565197283</v>
+        <v>8.981075536630447</v>
       </c>
       <c r="E308" t="n">
         <v>0.5449834722905138</v>
       </c>
       <c r="F308" t="n">
-        <v>15.84719976648351</v>
+        <v>15.02533124396678</v>
       </c>
       <c r="G308" t="n">
         <v>0.3764747144341156</v>
@@ -8522,7 +8522,7 @@
         <v>0.6011012053514921</v>
       </c>
       <c r="F311" t="n">
-        <v>11.16217991471021</v>
+        <v>10.48621167134774</v>
       </c>
       <c r="G311" t="n">
         <v>0.4150794131752249</v>
@@ -8548,7 +8548,7 @@
         <v>0.6248735503462558</v>
       </c>
       <c r="F312" t="n">
-        <v>8.852944908118781</v>
+        <v>8.435255258090153</v>
       </c>
       <c r="G312" t="n">
         <v>0.4643103326621376</v>
@@ -8600,7 +8600,7 @@
         <v>0.5154794438913276</v>
       </c>
       <c r="F314" t="n">
-        <v>11.14481999933598</v>
+        <v>11.39401790086577</v>
       </c>
       <c r="G314" t="n">
         <v>0.2707855344820969</v>
@@ -8620,7 +8620,7 @@
         <v>0.551677150333121</v>
       </c>
       <c r="D315" t="n">
-        <v>6.872622700973968</v>
+        <v>6.234948549905299</v>
       </c>
       <c r="E315" t="n">
         <v>0.4073135887848307</v>
@@ -8704,7 +8704,7 @@
         <v>0.5714095770867047</v>
       </c>
       <c r="F318" t="n">
-        <v>9.848001094715277</v>
+        <v>9.352258474591467</v>
       </c>
       <c r="G318" t="n">
         <v>0.3733883074272163</v>
@@ -8730,7 +8730,7 @@
         <v>0.586865923201833</v>
       </c>
       <c r="F319" t="n">
-        <v>10.55864418574275</v>
+        <v>10.6181030659859</v>
       </c>
       <c r="G319" t="n">
         <v>0.3475282786935723</v>
@@ -8802,7 +8802,7 @@
         <v>0.5612160252883744</v>
       </c>
       <c r="D322" t="n">
-        <v>6.135203189283433</v>
+        <v>5.154669807400043</v>
       </c>
       <c r="E322" t="n">
         <v>0.3778442414247181</v>
@@ -8906,13 +8906,13 @@
         <v>0.5490601323579516</v>
       </c>
       <c r="D326" t="n">
-        <v>9.78090809899674</v>
+        <v>9.15122529949052</v>
       </c>
       <c r="E326" t="n">
         <v>0.7249434396453839</v>
       </c>
       <c r="F326" t="n">
-        <v>10.97690013099995</v>
+        <v>11.61892572052889</v>
       </c>
       <c r="G326" t="n">
         <v>0.4130465957146624</v>
@@ -8932,7 +8932,7 @@
         <v>0.5533186493877101</v>
       </c>
       <c r="D327" t="n">
-        <v>5.495584575095044</v>
+        <v>4.210996662068285</v>
       </c>
       <c r="E327" t="n">
         <v>0.3902638767303924</v>
@@ -8958,13 +8958,13 @@
         <v>0.5809517271951066</v>
       </c>
       <c r="D328" t="n">
-        <v>13.18361905633641</v>
+        <v>13.73440879069367</v>
       </c>
       <c r="E328" t="n">
         <v>0.5456878348810217</v>
       </c>
       <c r="F328" t="n">
-        <v>14.36330796936863</v>
+        <v>13.84083113435735</v>
       </c>
       <c r="G328" t="n">
         <v>0.4720810462590225</v>
@@ -8990,7 +8990,7 @@
         <v>0.6426830473672482</v>
       </c>
       <c r="F329" t="n">
-        <v>12.10877973630419</v>
+        <v>11.05064698395268</v>
       </c>
       <c r="G329" t="n">
         <v>0.3154253940471853</v>
@@ -9010,7 +9010,7 @@
         <v>0.4667332578473402</v>
       </c>
       <c r="D330" t="n">
-        <v>0.8823848214285716</v>
+        <v>0</v>
       </c>
       <c r="E330" t="n">
         <v>0.2620293662546392</v>
@@ -9036,7 +9036,7 @@
         <v>0.5199556432355135</v>
       </c>
       <c r="D331" t="n">
-        <v>11.73826895002961</v>
+        <v>11.92207333517333</v>
       </c>
       <c r="E331" t="n">
         <v>0.3019601839530763</v>
@@ -9048,7 +9048,7 @@
         <v>0.2376309163168965</v>
       </c>
       <c r="H331" t="n">
-        <v>0.04737460317460317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
@@ -9146,7 +9146,7 @@
         <v>0.5113572460969041</v>
       </c>
       <c r="F335" t="n">
-        <v>8.014882935576329</v>
+        <v>7.294964115035875</v>
       </c>
       <c r="G335" t="n">
         <v>0.3816090364401208</v>
@@ -9172,7 +9172,7 @@
         <v>0.5281320349548708</v>
       </c>
       <c r="F336" t="n">
-        <v>10.36976851425726</v>
+        <v>11.07826943112939</v>
       </c>
       <c r="G336" t="n">
         <v>0.4965266959019522</v>
@@ -9218,7 +9218,7 @@
         <v>0.5285278853657021</v>
       </c>
       <c r="D338" t="n">
-        <v>9.226863446347796</v>
+        <v>7.941814384369716</v>
       </c>
       <c r="E338" t="n">
         <v>0.2484341611660059</v>
@@ -9328,7 +9328,7 @@
         <v>0.5624847722613873</v>
       </c>
       <c r="F342" t="n">
-        <v>9.555679403582527</v>
+        <v>9.846320180437266</v>
       </c>
       <c r="G342" t="n">
         <v>0.3324717465264067</v>
@@ -9348,7 +9348,7 @@
         <v>0.5365259880557173</v>
       </c>
       <c r="D343" t="n">
-        <v>12.58962725758923</v>
+        <v>12.1956181814033</v>
       </c>
       <c r="E343" t="n">
         <v>0.1025217907394345</v>
@@ -9360,7 +9360,7 @@
         <v>0.379830067369925</v>
       </c>
       <c r="H343" t="n">
-        <v>0.04737460317460317</v>
+        <v>4.113310714285714</v>
       </c>
     </row>
     <row r="344">
@@ -9400,19 +9400,19 @@
         <v>0.7570339748292867</v>
       </c>
       <c r="D345" t="n">
-        <v>12.27002787449245</v>
+        <v>13.69327171036064</v>
       </c>
       <c r="E345" t="n">
         <v>0.6755736277198937</v>
       </c>
       <c r="F345" t="n">
-        <v>10.9039399950015</v>
+        <v>10.99682275204338</v>
       </c>
       <c r="G345" t="n">
         <v>0.4680525733500686</v>
       </c>
       <c r="H345" t="n">
-        <v>7.413749421768707</v>
+        <v>3.074072344322344</v>
       </c>
     </row>
     <row r="346">
@@ -9478,13 +9478,13 @@
         <v>0.5527502475837285</v>
       </c>
       <c r="D348" t="n">
-        <v>4.571655246882397</v>
+        <v>3.603583377242122</v>
       </c>
       <c r="E348" t="n">
         <v>0.5005305129041683</v>
       </c>
       <c r="F348" t="n">
-        <v>9.679890956374974</v>
+        <v>9.224793209691798</v>
       </c>
       <c r="G348" t="n">
         <v>0.4242946545089866</v>
@@ -9504,7 +9504,7 @@
         <v>0.5169251380979217</v>
       </c>
       <c r="D349" t="n">
-        <v>10.47636978690383</v>
+        <v>10.62674294113498</v>
       </c>
       <c r="E349" t="n">
         <v>0.2682197592239963</v>
@@ -9536,7 +9536,7 @@
         <v>0.5189042226287341</v>
       </c>
       <c r="F350" t="n">
-        <v>7.167474798570267</v>
+        <v>7.068574974177604</v>
       </c>
       <c r="G350" t="n">
         <v>0.3908681558272533</v>
@@ -9556,7 +9556,7 @@
         <v>0.5088148957251684</v>
       </c>
       <c r="D351" t="n">
-        <v>5.21212987387073</v>
+        <v>4.442114537161265</v>
       </c>
       <c r="E351" t="n">
         <v>0.2809222547032421</v>
@@ -9582,7 +9582,7 @@
         <v>0.520674201466632</v>
       </c>
       <c r="D352" t="n">
-        <v>8.924174828463435</v>
+        <v>7.354269022507428</v>
       </c>
       <c r="E352" t="n">
         <v>0.2783430063808315</v>
@@ -9608,7 +9608,7 @@
         <v>0.523011460572158</v>
       </c>
       <c r="D353" t="n">
-        <v>14.76219033961375</v>
+        <v>12.52577889968818</v>
       </c>
       <c r="E353" t="n">
         <v>0.3264671351275599</v>
@@ -9634,7 +9634,7 @@
         <v>0.529210322305218</v>
       </c>
       <c r="D354" t="n">
-        <v>5.222632803725356</v>
+        <v>4.234958518949929</v>
       </c>
       <c r="E354" t="n">
         <v>0.4220230249262442</v>
@@ -9686,7 +9686,7 @@
         <v>0.50602329698855</v>
       </c>
       <c r="D356" t="n">
-        <v>3.502050818243748</v>
+        <v>5.38974655009576</v>
       </c>
       <c r="E356" t="n">
         <v>0.3370191294863564</v>
@@ -9738,13 +9738,13 @@
         <v>0.5404189320682611</v>
       </c>
       <c r="D358" t="n">
-        <v>7.407747431362012</v>
+        <v>5.472892394123928</v>
       </c>
       <c r="E358" t="n">
         <v>0.5702432206754541</v>
       </c>
       <c r="F358" t="n">
-        <v>16.48855311783303</v>
+        <v>16.42715001193134</v>
       </c>
       <c r="G358" t="n">
         <v>0.3265485048204701</v>
@@ -9790,13 +9790,13 @@
         <v>0.5012173495327994</v>
       </c>
       <c r="D360" t="n">
-        <v>7.772309565870638</v>
+        <v>6.747175173887154</v>
       </c>
       <c r="E360" t="n">
         <v>0.5991346745913205</v>
       </c>
       <c r="F360" t="n">
-        <v>11.58546098217259</v>
+        <v>10.97060492506356</v>
       </c>
       <c r="G360" t="n">
         <v>0.3363439296569941</v>
@@ -9972,7 +9972,7 @@
         <v>0.5125503972862064</v>
       </c>
       <c r="D367" t="n">
-        <v>6.393583972160488</v>
+        <v>6.454264358458028</v>
       </c>
       <c r="E367" t="n">
         <v>0.4607168603918564</v>
@@ -10062,7 +10062,7 @@
         <v>0.3777781334558868</v>
       </c>
       <c r="H370" t="n">
-        <v>7.46112402494331</v>
+        <v>3.074072344322344</v>
       </c>
     </row>
     <row r="371">
@@ -10088,7 +10088,7 @@
         <v>0.4622836412412889</v>
       </c>
       <c r="H371" t="n">
-        <v>7.413749421768707</v>
+        <v>3.074072344322344</v>
       </c>
     </row>
     <row r="372">
@@ -10206,13 +10206,13 @@
         <v>0.5661980804040911</v>
       </c>
       <c r="D376" t="n">
-        <v>4.246696782574412</v>
+        <v>4.830517539842663</v>
       </c>
       <c r="E376" t="n">
         <v>0.5659324894883427</v>
       </c>
       <c r="F376" t="n">
-        <v>13.48331422685916</v>
+        <v>11.43365379314634</v>
       </c>
       <c r="G376" t="n">
         <v>0.3526300390009642</v>
@@ -10232,7 +10232,7 @@
         <v>0.5347206195389711</v>
       </c>
       <c r="D377" t="n">
-        <v>11.18542752099835</v>
+        <v>10.21576162858364</v>
       </c>
       <c r="E377" t="n">
         <v>0.4655477848771484</v>
@@ -10284,13 +10284,13 @@
         <v>0.5391045063182056</v>
       </c>
       <c r="D379" t="n">
-        <v>6.259689998371755</v>
+        <v>7.505156320096122</v>
       </c>
       <c r="E379" t="n">
         <v>0.5140893786102162</v>
       </c>
       <c r="F379" t="n">
-        <v>12.96058472064082</v>
+        <v>12.64839449140334</v>
       </c>
       <c r="G379" t="n">
         <v>0.417533855710027</v>
@@ -10342,7 +10342,7 @@
         <v>0.5642352643527986</v>
       </c>
       <c r="F381" t="n">
-        <v>10.04351375089911</v>
+        <v>9.682837881941548</v>
       </c>
       <c r="G381" t="n">
         <v>0.3272593059126416</v>
@@ -10420,7 +10420,7 @@
         <v>0.5144458711863116</v>
       </c>
       <c r="F384" t="n">
-        <v>15.0301772187115</v>
+        <v>15.30475271258854</v>
       </c>
       <c r="G384" t="n">
         <v>0.4072975463129529</v>
@@ -10440,7 +10440,7 @@
         <v>0.5306840469789529</v>
       </c>
       <c r="D385" t="n">
-        <v>5.766131640996508</v>
+        <v>6.670687041199247</v>
       </c>
       <c r="E385" t="n">
         <v>0.4345542564501482</v>
@@ -10530,7 +10530,7 @@
         <v>0.3278877476605571</v>
       </c>
       <c r="H388" t="n">
-        <v>0.001428571428571429</v>
+        <v>4.113310714285714</v>
       </c>
     </row>
     <row r="389">
@@ -10544,7 +10544,7 @@
         <v>0.5232162943349141</v>
       </c>
       <c r="D389" t="n">
-        <v>10.73040632376995</v>
+        <v>12.09115542054628</v>
       </c>
       <c r="E389" t="n">
         <v>0.4240459546913191</v>
@@ -10556,7 +10556,7 @@
         <v>0.517242533931133</v>
       </c>
       <c r="H389" t="n">
-        <v>5.225366725467575</v>
+        <v>6.62782994357929</v>
       </c>
     </row>
     <row r="390">
@@ -10570,7 +10570,7 @@
         <v>0.4179244711641611</v>
       </c>
       <c r="D390" t="n">
-        <v>4.109866634615384</v>
+        <v>2.215402679835046</v>
       </c>
       <c r="E390" t="n">
         <v>0.4899643886075072</v>
@@ -10596,13 +10596,13 @@
         <v>0.4552145026464696</v>
       </c>
       <c r="D391" t="n">
-        <v>0.004235027472527472</v>
+        <v>0.6901181547619049</v>
       </c>
       <c r="E391" t="n">
         <v>0.5350730857382643</v>
       </c>
       <c r="F391" t="n">
-        <v>13.00656833286345</v>
+        <v>12.05629249347408</v>
       </c>
       <c r="G391" t="n">
         <v>0.4037896481485782</v>
@@ -10628,7 +10628,7 @@
         <v>0.6375221109457605</v>
       </c>
       <c r="F392" t="n">
-        <v>15.40498518456684</v>
+        <v>14.33120033754914</v>
       </c>
       <c r="G392" t="n">
         <v>0.4353956824087863</v>
@@ -10648,7 +10648,7 @@
         <v>0.5501897453504296</v>
       </c>
       <c r="D393" t="n">
-        <v>7.001342723835599</v>
+        <v>6.469851062443722</v>
       </c>
       <c r="E393" t="n">
         <v>0.3270866806971661</v>
@@ -10680,7 +10680,7 @@
         <v>0.5731780632047311</v>
       </c>
       <c r="F394" t="n">
-        <v>14.38414691726924</v>
+        <v>13.63367477530901</v>
       </c>
       <c r="G394" t="n">
         <v>0.3342476360829208</v>
@@ -10700,13 +10700,13 @@
         <v>0.5631903622923473</v>
       </c>
       <c r="D395" t="n">
-        <v>34.17490433326595</v>
+        <v>28.39859386886961</v>
       </c>
       <c r="E395" t="n">
         <v>0.5212865457567027</v>
       </c>
       <c r="F395" t="n">
-        <v>10.79355479287578</v>
+        <v>10.79315495640768</v>
       </c>
       <c r="G395" t="n">
         <v>0.4435730573595438</v>
@@ -10732,7 +10732,7 @@
         <v>0.7209964399024728</v>
       </c>
       <c r="F396" t="n">
-        <v>12.25484480254398</v>
+        <v>12.12405087752526</v>
       </c>
       <c r="G396" t="n">
         <v>0.3472447447050596</v>
@@ -10784,7 +10784,7 @@
         <v>0.508784572114194</v>
       </c>
       <c r="F398" t="n">
-        <v>14.4070059319637</v>
+        <v>14.24487358153547</v>
       </c>
       <c r="G398" t="n">
         <v>0.423739186885222</v>
@@ -10816,7 +10816,7 @@
         <v>0.3180268688198364</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>1.749325510204082</v>
       </c>
     </row>
     <row r="400">
@@ -10830,13 +10830,13 @@
         <v>0.5813566579326458</v>
       </c>
       <c r="D400" t="n">
-        <v>6.338879832148853</v>
+        <v>6.707546802394812</v>
       </c>
       <c r="E400" t="n">
         <v>0.5406647873040201</v>
       </c>
       <c r="F400" t="n">
-        <v>9.024621141632643</v>
+        <v>9.320630993737717</v>
       </c>
       <c r="G400" t="n">
         <v>0.3068913401331314</v>
@@ -10894,7 +10894,7 @@
         <v>0.5062847992971674</v>
       </c>
       <c r="H402" t="n">
-        <v>13.1979790494263</v>
+        <v>11.80063552789647</v>
       </c>
     </row>
     <row r="403">
@@ -10908,7 +10908,7 @@
         <v>0.6617522059226209</v>
       </c>
       <c r="D403" t="n">
-        <v>10.78944558996064</v>
+        <v>11.99853185320253</v>
       </c>
       <c r="E403" t="n">
         <v>0.3990053936371867</v>
@@ -10934,7 +10934,7 @@
         <v>0.7576874461288673</v>
       </c>
       <c r="D404" t="n">
-        <v>6.818469546045829</v>
+        <v>6.007402556061368</v>
       </c>
       <c r="E404" t="n">
         <v>0.4731355560913821</v>
@@ -10986,13 +10986,13 @@
         <v>0.5531000396809431</v>
       </c>
       <c r="D406" t="n">
-        <v>13.57744220843233</v>
+        <v>10.62020906777903</v>
       </c>
       <c r="E406" t="n">
         <v>0.7607008095527117</v>
       </c>
       <c r="F406" t="n">
-        <v>11.35699774557566</v>
+        <v>10.45728356390954</v>
       </c>
       <c r="G406" t="n">
         <v>0.4166931839943184</v>
@@ -11064,7 +11064,7 @@
         <v>0.5038504957489861</v>
       </c>
       <c r="D409" t="n">
-        <v>5.269258303856593</v>
+        <v>5.471744584215001</v>
       </c>
       <c r="E409" t="n">
         <v>0.414732018100018</v>
@@ -11090,7 +11090,7 @@
         <v>0.5137978446923955</v>
       </c>
       <c r="D410" t="n">
-        <v>8.965711362692623</v>
+        <v>9.778027324954362</v>
       </c>
       <c r="E410" t="n">
         <v>0.2894433547336771</v>
@@ -11116,7 +11116,7 @@
         <v>0.65643764326587</v>
       </c>
       <c r="D411" t="n">
-        <v>5.419900063997328</v>
+        <v>6.183640263238744</v>
       </c>
       <c r="E411" t="n">
         <v>0.4067948001186376</v>
@@ -11168,13 +11168,13 @@
         <v>0.5264382420289732</v>
       </c>
       <c r="D413" t="n">
-        <v>11.05748191461068</v>
+        <v>10.00678474442506</v>
       </c>
       <c r="E413" t="n">
         <v>0.5448767884905773</v>
       </c>
       <c r="F413" t="n">
-        <v>12.07729061628323</v>
+        <v>10.34512643715016</v>
       </c>
       <c r="G413" t="n">
         <v>0.4954058329286862</v>
@@ -11220,13 +11220,13 @@
         <v>0.632287552141314</v>
       </c>
       <c r="D415" t="n">
-        <v>11.22321948946201</v>
+        <v>12.49420765595527</v>
       </c>
       <c r="E415" t="n">
         <v>0.6114375075316968</v>
       </c>
       <c r="F415" t="n">
-        <v>11.64269767003736</v>
+        <v>11.63030654018979</v>
       </c>
       <c r="G415" t="n">
         <v>0.3555274856656733</v>
@@ -11246,7 +11246,7 @@
         <v>0.5330536383231924</v>
       </c>
       <c r="D416" t="n">
-        <v>8.311056424097755</v>
+        <v>7.893060050599203</v>
       </c>
       <c r="E416" t="n">
         <v>0.3269624979838754</v>
@@ -11272,7 +11272,7 @@
         <v>0.6715749964228165</v>
       </c>
       <c r="D417" t="n">
-        <v>15.23080389585716</v>
+        <v>15.1952483582968</v>
       </c>
       <c r="E417" t="n">
         <v>0.3536757666335082</v>
@@ -11284,7 +11284,7 @@
         <v>0.2370388269398985</v>
       </c>
       <c r="H417" t="n">
-        <v>0.04737460317460317</v>
+        <v>4.113310714285714</v>
       </c>
     </row>
     <row r="418">
@@ -11298,13 +11298,13 @@
         <v>0.6407737398029663</v>
       </c>
       <c r="D418" t="n">
-        <v>12.04180806220595</v>
+        <v>11.98973020952662</v>
       </c>
       <c r="E418" t="n">
         <v>0.6227468574283116</v>
       </c>
       <c r="F418" t="n">
-        <v>13.06388730184346</v>
+        <v>12.03897768010643</v>
       </c>
       <c r="G418" t="n">
         <v>0.4099678750471219</v>
@@ -11324,7 +11324,7 @@
         <v>0.4311406109577771</v>
       </c>
       <c r="D419" t="n">
-        <v>0.8823848214285716</v>
+        <v>0</v>
       </c>
       <c r="E419" t="n">
         <v>0.4184829961163136</v>
@@ -11350,7 +11350,7 @@
         <v>0.6952217898576664</v>
       </c>
       <c r="D420" t="n">
-        <v>4.431408541004314</v>
+        <v>5.782578904528203</v>
       </c>
       <c r="E420" t="n">
         <v>0.3715994967219301</v>
@@ -11402,19 +11402,19 @@
         <v>0.671500302538953</v>
       </c>
       <c r="D422" t="n">
-        <v>6.392892232403016</v>
+        <v>5.957256944716704</v>
       </c>
       <c r="E422" t="n">
         <v>0.5261238713551394</v>
       </c>
       <c r="F422" t="n">
-        <v>12.83591622309239</v>
+        <v>14.78571923323194</v>
       </c>
       <c r="G422" t="n">
         <v>0.2949974783190114</v>
       </c>
       <c r="H422" t="n">
-        <v>8.896977278911566</v>
+        <v>3.074072344322344</v>
       </c>
     </row>
     <row r="423">
@@ -11434,13 +11434,13 @@
         <v>0.692541567693465</v>
       </c>
       <c r="F423" t="n">
-        <v>10.83671339030659</v>
+        <v>10.46517477941118</v>
       </c>
       <c r="G423" t="n">
         <v>0.5189016595462108</v>
       </c>
       <c r="H423" t="n">
-        <v>22.76697704509776</v>
+        <v>21.50455298928546</v>
       </c>
     </row>
     <row r="424">
@@ -11480,13 +11480,13 @@
         <v>0.5779507366499507</v>
       </c>
       <c r="D425" t="n">
-        <v>6.628930409422219</v>
+        <v>6.485855263606025</v>
       </c>
       <c r="E425" t="n">
         <v>0.541972756246057</v>
       </c>
       <c r="F425" t="n">
-        <v>13.17805822732823</v>
+        <v>14.55914518324848</v>
       </c>
       <c r="G425" t="n">
         <v>0.4135379089345214</v>
@@ -11506,7 +11506,7 @@
         <v>0.5106783528905576</v>
       </c>
       <c r="D426" t="n">
-        <v>12.02544202368721</v>
+        <v>13.20380734739466</v>
       </c>
       <c r="E426" t="n">
         <v>0.4048847903852115</v>
@@ -11558,13 +11558,13 @@
         <v>0.501647648797519</v>
       </c>
       <c r="D428" t="n">
-        <v>8.877209245652951</v>
+        <v>9.649496525884732</v>
       </c>
       <c r="E428" t="n">
         <v>0.5135299118311567</v>
       </c>
       <c r="F428" t="n">
-        <v>10.93950162908603</v>
+        <v>11.84966580214662</v>
       </c>
       <c r="G428" t="n">
         <v>0.3408766364110883</v>
@@ -11668,7 +11668,7 @@
         <v>0.5124229734938454</v>
       </c>
       <c r="F432" t="n">
-        <v>12.41051708482052</v>
+        <v>12.07994157621517</v>
       </c>
       <c r="G432" t="n">
         <v>0.3556782270815048</v>
@@ -11726,7 +11726,7 @@
         <v>0.3668109222157295</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>0.07620765306122448</v>
       </c>
     </row>
     <row r="435">
@@ -11746,7 +11746,7 @@
         <v>0.5561305384122933</v>
       </c>
       <c r="F435" t="n">
-        <v>14.46330698004959</v>
+        <v>13.62647703367419</v>
       </c>
       <c r="G435" t="n">
         <v>0.4466210298698188</v>
@@ -11766,7 +11766,7 @@
         <v>0.540519741307166</v>
       </c>
       <c r="D436" t="n">
-        <v>3.925115453391445</v>
+        <v>4.33783681316408</v>
       </c>
       <c r="E436" t="n">
         <v>0.4659989099294581</v>
@@ -11792,13 +11792,13 @@
         <v>0.5268223211058918</v>
       </c>
       <c r="D437" t="n">
-        <v>6.69856359882064</v>
+        <v>6.256750079040454</v>
       </c>
       <c r="E437" t="n">
         <v>0.5590068388006367</v>
       </c>
       <c r="F437" t="n">
-        <v>15.33534726247959</v>
+        <v>15.32816243554386</v>
       </c>
       <c r="G437" t="n">
         <v>0.3562204244511972</v>
@@ -11830,7 +11830,7 @@
         <v>0.5225270898326327</v>
       </c>
       <c r="H438" t="n">
-        <v>8.119392745347557</v>
+        <v>8.909093303791213</v>
       </c>
     </row>
     <row r="439">
@@ -11850,7 +11850,7 @@
         <v>0.5415078070142848</v>
       </c>
       <c r="F439" t="n">
-        <v>15.66363682992544</v>
+        <v>15.59269894133622</v>
       </c>
       <c r="G439" t="n">
         <v>0.328604894127475</v>
@@ -11876,7 +11876,7 @@
         <v>0.5093902634712223</v>
       </c>
       <c r="F440" t="n">
-        <v>12.63287825552424</v>
+        <v>12.76296503363321</v>
       </c>
       <c r="G440" t="n">
         <v>0.311451317462713</v>
@@ -11908,7 +11908,7 @@
         <v>0.5544372863309209</v>
       </c>
       <c r="H441" t="n">
-        <v>5.101209443139728</v>
+        <v>5.936316949664267</v>
       </c>
     </row>
     <row r="442">
@@ -11922,7 +11922,7 @@
         <v>0.5117236746881133</v>
       </c>
       <c r="D442" t="n">
-        <v>17.78872713554522</v>
+        <v>17.00214662306703</v>
       </c>
       <c r="E442" t="n">
         <v>0.4142050968228143</v>
@@ -11954,7 +11954,7 @@
         <v>0.5289892014275439</v>
       </c>
       <c r="F443" t="n">
-        <v>13.07653447834697</v>
+        <v>12.53595993425255</v>
       </c>
       <c r="G443" t="n">
         <v>0.3398318464656065</v>
@@ -11974,7 +11974,7 @@
         <v>0.5423263280957034</v>
       </c>
       <c r="D444" t="n">
-        <v>3.927086295522434</v>
+        <v>3.839565139268659</v>
       </c>
       <c r="E444" t="n">
         <v>0.3418826640529737</v>
@@ -12000,7 +12000,7 @@
         <v>0.5343578550621259</v>
       </c>
       <c r="D445" t="n">
-        <v>3.986490618962228</v>
+        <v>3.159826661555844</v>
       </c>
       <c r="E445" t="n">
         <v>0.3540885609135952</v>
@@ -12026,7 +12026,7 @@
         <v>0.5121480349690538</v>
       </c>
       <c r="D446" t="n">
-        <v>7.789033001903847</v>
+        <v>8.718473173364799</v>
       </c>
       <c r="E446" t="n">
         <v>0.3645115096289469</v>
@@ -12052,13 +12052,13 @@
         <v>0.5090857921776263</v>
       </c>
       <c r="D447" t="n">
-        <v>4.906104850010058</v>
+        <v>4.533652629108658</v>
       </c>
       <c r="E447" t="n">
         <v>0.5349185312159737</v>
       </c>
       <c r="F447" t="n">
-        <v>9.857242465037881</v>
+        <v>10.52778001503679</v>
       </c>
       <c r="G447" t="n">
         <v>0.327196811765565</v>
@@ -12078,7 +12078,7 @@
         <v>0.5170414280893856</v>
       </c>
       <c r="D448" t="n">
-        <v>10.2611466840132</v>
+        <v>10.39390888845856</v>
       </c>
       <c r="E448" t="n">
         <v>0.2097999911191362</v>
@@ -12246,7 +12246,7 @@
         <v>0.3278542232827096</v>
       </c>
       <c r="H454" t="n">
-        <v>0.04737460317460317</v>
+        <v>4.113310714285714</v>
       </c>
     </row>
     <row r="455">
@@ -12286,13 +12286,13 @@
         <v>0.5473220705773897</v>
       </c>
       <c r="D456" t="n">
-        <v>34.90262291367858</v>
+        <v>29.37760841281697</v>
       </c>
       <c r="E456" t="n">
         <v>0.7297632397275375</v>
       </c>
       <c r="F456" t="n">
-        <v>10.16478043749551</v>
+        <v>10.34035074270286</v>
       </c>
       <c r="G456" t="n">
         <v>0.3498680691845977</v>
@@ -12338,7 +12338,7 @@
         <v>0.5110962881841161</v>
       </c>
       <c r="D458" t="n">
-        <v>5.522446931145411</v>
+        <v>6.137466305522693</v>
       </c>
       <c r="E458" t="n">
         <v>0.4914495997912707</v>
@@ -12364,7 +12364,7 @@
         <v>0.5557855722098232</v>
       </c>
       <c r="D459" t="n">
-        <v>12.72359369298608</v>
+        <v>11.86684442686938</v>
       </c>
       <c r="E459" t="n">
         <v>0.3771129850574965</v>
@@ -12416,7 +12416,7 @@
         <v>0.5965390642734828</v>
       </c>
       <c r="D461" t="n">
-        <v>12.03529286926864</v>
+        <v>11.87575461471023</v>
       </c>
       <c r="E461" t="n">
         <v>0.3389281003109371</v>
@@ -12428,7 +12428,7 @@
         <v>0.3593564201499841</v>
       </c>
       <c r="H461" t="n">
-        <v>3.506515306122449</v>
+        <v>4.113310714285714</v>
       </c>
     </row>
     <row r="462">
@@ -12468,19 +12468,19 @@
         <v>0.5594113623565158</v>
       </c>
       <c r="D463" t="n">
-        <v>5.734142010011015</v>
+        <v>4.342573619899646</v>
       </c>
       <c r="E463" t="n">
         <v>0.5211303509228848</v>
       </c>
       <c r="F463" t="n">
-        <v>13.75469271894772</v>
+        <v>13.40853338235062</v>
       </c>
       <c r="G463" t="n">
         <v>0.5206459227867506</v>
       </c>
       <c r="H463" t="n">
-        <v>21.68488125869112</v>
+        <v>27.74905852470942</v>
       </c>
     </row>
     <row r="464">
@@ -12494,13 +12494,13 @@
         <v>0.6858952836558564</v>
       </c>
       <c r="D464" t="n">
-        <v>9.672123211339168</v>
+        <v>8.573090289704959</v>
       </c>
       <c r="E464" t="n">
         <v>0.6512786180716086</v>
       </c>
       <c r="F464" t="n">
-        <v>11.56306989183436</v>
+        <v>13.50679637646755</v>
       </c>
       <c r="G464" t="n">
         <v>0.3386678881522054</v>
@@ -12520,13 +12520,13 @@
         <v>0.518890006504198</v>
       </c>
       <c r="D465" t="n">
-        <v>4.393874502009322</v>
+        <v>4.000794851207192</v>
       </c>
       <c r="E465" t="n">
         <v>0.52063430891966</v>
       </c>
       <c r="F465" t="n">
-        <v>12.20981463351032</v>
+        <v>12.68490283274878</v>
       </c>
       <c r="G465" t="n">
         <v>0.471290377939751</v>
@@ -12552,7 +12552,7 @@
         <v>0.5419756458440013</v>
       </c>
       <c r="F466" t="n">
-        <v>9.764917042428122</v>
+        <v>9.166254707411518</v>
       </c>
       <c r="G466" t="n">
         <v>0.4078555354412029</v>
@@ -12572,13 +12572,13 @@
         <v>0.5146238319071011</v>
       </c>
       <c r="D467" t="n">
-        <v>8.096672288379882</v>
+        <v>6.208519242971081</v>
       </c>
       <c r="E467" t="n">
         <v>0.6933930065625297</v>
       </c>
       <c r="F467" t="n">
-        <v>11.11816508726393</v>
+        <v>10.18203090641822</v>
       </c>
       <c r="G467" t="n">
         <v>0.3732832462529374</v>
@@ -12598,7 +12598,7 @@
         <v>0.5296691416705583</v>
       </c>
       <c r="D468" t="n">
-        <v>4.965665483486072</v>
+        <v>4.804238407975079</v>
       </c>
       <c r="E468" t="n">
         <v>0.4340163772442864</v>
@@ -12624,13 +12624,13 @@
         <v>0.522308690513267</v>
       </c>
       <c r="D469" t="n">
-        <v>7.773239462993526</v>
+        <v>7.216864895982189</v>
       </c>
       <c r="E469" t="n">
         <v>0.7044755082352256</v>
       </c>
       <c r="F469" t="n">
-        <v>13.90537227790067</v>
+        <v>15.34517032970695</v>
       </c>
       <c r="G469" t="n">
         <v>0.3701331985442747</v>
@@ -12650,7 +12650,7 @@
         <v>0.5070019635013195</v>
       </c>
       <c r="D470" t="n">
-        <v>17.45619943630191</v>
+        <v>16.18593861888443</v>
       </c>
       <c r="E470" t="n">
         <v>0.3973245346548478</v>
@@ -12662,7 +12662,7 @@
         <v>0.2916839760954933</v>
       </c>
       <c r="H470" t="n">
-        <v>0.04737460317460317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471">
@@ -12708,7 +12708,7 @@
         <v>0.5830449209081244</v>
       </c>
       <c r="F472" t="n">
-        <v>8.973199290931499</v>
+        <v>8.133369747615662</v>
       </c>
       <c r="G472" t="n">
         <v>0.4134452003805778</v>
@@ -12734,13 +12734,13 @@
         <v>0.5176768142947433</v>
       </c>
       <c r="F473" t="n">
-        <v>9.494815374269692</v>
+        <v>8.738770122542208</v>
       </c>
       <c r="G473" t="n">
         <v>0.3440167620997881</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>1.749325510204082</v>
       </c>
     </row>
     <row r="474">
@@ -12760,7 +12760,7 @@
         <v>0.626521565131561</v>
       </c>
       <c r="F474" t="n">
-        <v>10.49461658472946</v>
+        <v>10.45895632788605</v>
       </c>
       <c r="G474" t="n">
         <v>0.3354476508225266</v>
@@ -12792,7 +12792,7 @@
         <v>0.341355393689569</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>1.749325510204082</v>
       </c>
     </row>
     <row r="476">
@@ -12832,7 +12832,7 @@
         <v>0.5014254236759185</v>
       </c>
       <c r="D477" t="n">
-        <v>5.674762125770734</v>
+        <v>7.499604158257127</v>
       </c>
       <c r="E477" t="n">
         <v>0.4326805829247688</v>
@@ -12922,7 +12922,7 @@
         <v>0.2939023587377095</v>
       </c>
       <c r="H480" t="n">
-        <v>0.001428571428571429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481">
@@ -12936,7 +12936,7 @@
         <v>0.6037445719988814</v>
       </c>
       <c r="D481" t="n">
-        <v>12.94365683991108</v>
+        <v>12.90774040398629</v>
       </c>
       <c r="E481" t="n">
         <v>0.483019247018292</v>
@@ -12948,7 +12948,7 @@
         <v>0.7194090259239244</v>
       </c>
       <c r="H481" t="n">
-        <v>15.56979577499881</v>
+        <v>8.750704760616365</v>
       </c>
     </row>
     <row r="482">
@@ -12988,19 +12988,19 @@
         <v>0.546195855394129</v>
       </c>
       <c r="D483" t="n">
-        <v>17.04654670041764</v>
+        <v>12.48572490351492</v>
       </c>
       <c r="E483" t="n">
         <v>0.6088857544226208</v>
       </c>
       <c r="F483" t="n">
-        <v>8.1080178060694</v>
+        <v>9.159153058824051</v>
       </c>
       <c r="G483" t="n">
         <v>0.3806261189339467</v>
       </c>
       <c r="H483" t="n">
-        <v>7.413749421768707</v>
+        <v>3.074072344322344</v>
       </c>
     </row>
     <row r="484">
@@ -13040,7 +13040,7 @@
         <v>0.5532483849565614</v>
       </c>
       <c r="D485" t="n">
-        <v>6.099777840052769</v>
+        <v>5.144342981597362</v>
       </c>
       <c r="E485" t="n">
         <v>0.4801082427137523</v>
@@ -13092,7 +13092,7 @@
         <v>0.5265750152071306</v>
       </c>
       <c r="D487" t="n">
-        <v>37.15838572659483</v>
+        <v>30.98355904278261</v>
       </c>
       <c r="E487" t="n">
         <v>0.3897195172044247</v>
@@ -13130,7 +13130,7 @@
         <v>0.4256615265308951</v>
       </c>
       <c r="H488" t="n">
-        <v>7.413749421768707</v>
+        <v>3.074072344322344</v>
       </c>
     </row>
     <row r="489">
@@ -13156,7 +13156,7 @@
         <v>0.5172202941766182</v>
       </c>
       <c r="H489" t="n">
-        <v>6.491454137807867</v>
+        <v>6.866002467918983</v>
       </c>
     </row>
     <row r="490">
@@ -13170,7 +13170,7 @@
         <v>0.5697872123606587</v>
       </c>
       <c r="D490" t="n">
-        <v>9.074803100907468</v>
+        <v>9.355824977073981</v>
       </c>
       <c r="E490" t="n">
         <v>0.4584202053612849</v>
@@ -13338,7 +13338,7 @@
         <v>0.5180976303484174</v>
       </c>
       <c r="H496" t="n">
-        <v>33.74030876661038</v>
+        <v>31.08374598152839</v>
       </c>
     </row>
     <row r="497">
@@ -13364,7 +13364,7 @@
         <v>0.5467905435543969</v>
       </c>
       <c r="H497" t="n">
-        <v>17.96853260445904</v>
+        <v>20.0671081029077</v>
       </c>
     </row>
     <row r="498">
@@ -13378,13 +13378,13 @@
         <v>0.6170055107522351</v>
       </c>
       <c r="D498" t="n">
-        <v>35.94988681166056</v>
+        <v>30.28012295979059</v>
       </c>
       <c r="E498" t="n">
         <v>0.6670542554271859</v>
       </c>
       <c r="F498" t="n">
-        <v>14.25166372960839</v>
+        <v>14.97575372815677</v>
       </c>
       <c r="G498" t="n">
         <v>0.4114082600381921</v>
@@ -13456,7 +13456,7 @@
         <v>0.5582046404391268</v>
       </c>
       <c r="D501" t="n">
-        <v>5.819400813399137</v>
+        <v>5.095683168541112</v>
       </c>
       <c r="E501" t="n">
         <v>0.421625643573492</v>
@@ -13488,7 +13488,7 @@
         <v>0.5284545569937524</v>
       </c>
       <c r="F502" t="n">
-        <v>10.91209568642667</v>
+        <v>11.35558503489245</v>
       </c>
       <c r="G502" t="n">
         <v>0.213219668072868</v>
@@ -13508,7 +13508,7 @@
         <v>0.5166852576563408</v>
       </c>
       <c r="D503" t="n">
-        <v>30.98958292112458</v>
+        <v>23.62357904558196</v>
       </c>
       <c r="E503" t="n">
         <v>0.3676894212058129</v>
@@ -13534,7 +13534,7 @@
         <v>0.5091684543838993</v>
       </c>
       <c r="D504" t="n">
-        <v>8.825229031334855</v>
+        <v>8.62852433613976</v>
       </c>
       <c r="E504" t="n">
         <v>0.3023988614479952</v>
@@ -13546,7 +13546,7 @@
         <v>0.3099178961479649</v>
       </c>
       <c r="H504" t="n">
-        <v>0.001428571428571429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505">
@@ -13560,19 +13560,19 @@
         <v>0.5317102219728221</v>
       </c>
       <c r="D505" t="n">
-        <v>5.506394380903662</v>
+        <v>4.669410349648597</v>
       </c>
       <c r="E505" t="n">
         <v>0.5368657812918994</v>
       </c>
       <c r="F505" t="n">
-        <v>9.924009975203369</v>
+        <v>9.999176254960316</v>
       </c>
       <c r="G505" t="n">
         <v>0.6198274085341895</v>
       </c>
       <c r="H505" t="n">
-        <v>13.4158126814094</v>
+        <v>11.62735827195622</v>
       </c>
     </row>
     <row r="506">
@@ -13612,7 +13612,7 @@
         <v>0.5481959158893707</v>
       </c>
       <c r="D507" t="n">
-        <v>4.078932488922211</v>
+        <v>5.083801484615407</v>
       </c>
       <c r="E507" t="n">
         <v>0.4576913815256691</v>
@@ -13638,7 +13638,7 @@
         <v>0.4152644283969421</v>
       </c>
       <c r="D508" t="n">
-        <v>0.9118343925518926</v>
+        <v>4.151709638129728</v>
       </c>
       <c r="E508" t="n">
         <v>0.4171213279135907</v>
@@ -13664,19 +13664,19 @@
         <v>0.533839229853193</v>
       </c>
       <c r="D509" t="n">
-        <v>12.44905754073468</v>
+        <v>12.10998761472421</v>
       </c>
       <c r="E509" t="n">
         <v>0.5065989632639274</v>
       </c>
       <c r="F509" t="n">
-        <v>12.09570328445422</v>
+        <v>11.79698491343351</v>
       </c>
       <c r="G509" t="n">
         <v>0.6023913483244892</v>
       </c>
       <c r="H509" t="n">
-        <v>8.651310242753278</v>
+        <v>6.27496893232876</v>
       </c>
     </row>
     <row r="510">
@@ -13696,7 +13696,7 @@
         <v>0.7196690709452398</v>
       </c>
       <c r="F510" t="n">
-        <v>9.185833197709735</v>
+        <v>8.797408725794218</v>
       </c>
       <c r="G510" t="n">
         <v>0.2751560142586992</v>
@@ -13748,7 +13748,7 @@
         <v>0.5528110147941323</v>
       </c>
       <c r="F512" t="n">
-        <v>15.03030739290786</v>
+        <v>15.06161952747124</v>
       </c>
       <c r="G512" t="n">
         <v>0.320068752345875</v>
@@ -13774,7 +13774,7 @@
         <v>0.501565181398046</v>
       </c>
       <c r="F513" t="n">
-        <v>13.95072717363359</v>
+        <v>14.16214179642282</v>
       </c>
       <c r="G513" t="n">
         <v>0.4004607197699976</v>
@@ -13806,7 +13806,7 @@
         <v>0.512122566108679</v>
       </c>
       <c r="H514" t="n">
-        <v>14.17476795648154</v>
+        <v>8.957126666785594</v>
       </c>
     </row>
     <row r="515">
@@ -13820,13 +13820,13 @@
         <v>0.5527295734665301</v>
       </c>
       <c r="D515" t="n">
-        <v>11.14149100187928</v>
+        <v>10.69606448562984</v>
       </c>
       <c r="E515" t="n">
         <v>0.6437241994959599</v>
       </c>
       <c r="F515" t="n">
-        <v>13.42505311952345</v>
+        <v>11.37070074490985</v>
       </c>
       <c r="G515" t="n">
         <v>0.323473550990419</v>
@@ -13846,13 +13846,13 @@
         <v>0.6159348020459526</v>
       </c>
       <c r="D516" t="n">
-        <v>8.851644071876423</v>
+        <v>10.66556326846708</v>
       </c>
       <c r="E516" t="n">
         <v>0.5687135427485015</v>
       </c>
       <c r="F516" t="n">
-        <v>10.95341517330706</v>
+        <v>10.35171835057916</v>
       </c>
       <c r="G516" t="n">
         <v>0.3301677670664248</v>
@@ -13878,7 +13878,7 @@
         <v>0.5096223902454281</v>
       </c>
       <c r="F517" t="n">
-        <v>14.55351616961761</v>
+        <v>15.14995731521076</v>
       </c>
       <c r="G517" t="n">
         <v>0.2783855259045201</v>
@@ -13910,7 +13910,7 @@
         <v>0.3726584476614764</v>
       </c>
       <c r="H518" t="n">
-        <v>7.413749421768707</v>
+        <v>3.074072344322344</v>
       </c>
     </row>
     <row r="519">
@@ -13936,7 +13936,7 @@
         <v>0.4026728526922528</v>
       </c>
       <c r="H519" t="n">
-        <v>7.46112402494331</v>
+        <v>3.074072344322344</v>
       </c>
     </row>
     <row r="520">
@@ -13950,7 +13950,7 @@
         <v>0.5223058538785464</v>
       </c>
       <c r="D520" t="n">
-        <v>5.514202161038655</v>
+        <v>4.390886007979342</v>
       </c>
       <c r="E520" t="n">
         <v>0.4910323612782398</v>
@@ -14002,7 +14002,7 @@
         <v>0.5403383374137473</v>
       </c>
       <c r="D522" t="n">
-        <v>10.17262764392354</v>
+        <v>12.08784787394883</v>
       </c>
       <c r="E522" t="n">
         <v>0.4583095910012067</v>
@@ -14034,7 +14034,7 @@
         <v>0.5953807856553497</v>
       </c>
       <c r="F523" t="n">
-        <v>9.904088339136356</v>
+        <v>9.889519832720969</v>
       </c>
       <c r="G523" t="n">
         <v>0.3794977317980422</v>
@@ -14080,13 +14080,13 @@
         <v>0.7837263219437218</v>
       </c>
       <c r="D525" t="n">
-        <v>13.24953784171273</v>
+        <v>11.44828974583357</v>
       </c>
       <c r="E525" t="n">
         <v>0.6689322328425442</v>
       </c>
       <c r="F525" t="n">
-        <v>11.83955952174809</v>
+        <v>12.64410845893865</v>
       </c>
       <c r="G525" t="n">
         <v>0.3507515005022601</v>
@@ -14132,7 +14132,7 @@
         <v>0.5419609327171481</v>
       </c>
       <c r="D527" t="n">
-        <v>35.17285025838802</v>
+        <v>28.26225675536474</v>
       </c>
       <c r="E527" t="n">
         <v>0.4679401107609935</v>
@@ -14144,7 +14144,7 @@
         <v>0.4946327143021146</v>
       </c>
       <c r="H527" t="n">
-        <v>0.04737460317460317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528">
@@ -14164,7 +14164,7 @@
         <v>0.5183752453825993</v>
       </c>
       <c r="F528" t="n">
-        <v>14.13163916908488</v>
+        <v>12.46107845206535</v>
       </c>
       <c r="G528" t="n">
         <v>0.395618366645033</v>
@@ -14184,13 +14184,13 @@
         <v>0.6207892306999053</v>
       </c>
       <c r="D529" t="n">
-        <v>5.721662820990868</v>
+        <v>4.748530950470222</v>
       </c>
       <c r="E529" t="n">
         <v>0.5543460147650904</v>
       </c>
       <c r="F529" t="n">
-        <v>13.55794849589894</v>
+        <v>13.15536537109191</v>
       </c>
       <c r="G529" t="n">
         <v>0.3626324247255145</v>
@@ -14210,7 +14210,7 @@
         <v>0.52853602445216</v>
       </c>
       <c r="D530" t="n">
-        <v>15.76347725305303</v>
+        <v>13.79920055183885</v>
       </c>
       <c r="E530" t="n">
         <v>0.2994614975815981</v>
@@ -14222,7 +14222,7 @@
         <v>0.2594765403054684</v>
       </c>
       <c r="H530" t="n">
-        <v>0.04737460317460317</v>
+        <v>4.113310714285714</v>
       </c>
     </row>
     <row r="531">
@@ -14236,7 +14236,7 @@
         <v>0.5716411448498058</v>
       </c>
       <c r="D531" t="n">
-        <v>32.44068688696225</v>
+        <v>25.30537858186679</v>
       </c>
       <c r="E531" t="n">
         <v>0.4378000948341127</v>
@@ -14314,7 +14314,7 @@
         <v>0.5328267471396815</v>
       </c>
       <c r="D534" t="n">
-        <v>12.20031328013257</v>
+        <v>11.38085322541885</v>
       </c>
       <c r="E534" t="n">
         <v>0.4139510121834915</v>
@@ -14340,13 +14340,13 @@
         <v>0.5769987615356763</v>
       </c>
       <c r="D535" t="n">
-        <v>6.580010397052316</v>
+        <v>6.424169100244895</v>
       </c>
       <c r="E535" t="n">
         <v>0.5884202455574007</v>
       </c>
       <c r="F535" t="n">
-        <v>15.34959268400682</v>
+        <v>16.04164729665148</v>
       </c>
       <c r="G535" t="n">
         <v>0.3564064272865123</v>
@@ -14366,19 +14366,19 @@
         <v>0.5742430094413524</v>
       </c>
       <c r="D536" t="n">
-        <v>13.45462687866449</v>
+        <v>12.2962554174844</v>
       </c>
       <c r="E536" t="n">
         <v>0.6002893148156792</v>
       </c>
       <c r="F536" t="n">
-        <v>17.62214093204765</v>
+        <v>16.31864124538627</v>
       </c>
       <c r="G536" t="n">
         <v>0.5133658292027068</v>
       </c>
       <c r="H536" t="n">
-        <v>9.740941661661751</v>
+        <v>8.294878924762584</v>
       </c>
     </row>
     <row r="537">
@@ -14444,13 +14444,13 @@
         <v>0.5213100395463892</v>
       </c>
       <c r="D539" t="n">
-        <v>5.266125917850968</v>
+        <v>5.269136686261626</v>
       </c>
       <c r="E539" t="n">
         <v>0.5236852170042589</v>
       </c>
       <c r="F539" t="n">
-        <v>10.92232395120807</v>
+        <v>11.23826134442812</v>
       </c>
       <c r="G539" t="n">
         <v>0.3470587292858423</v>
@@ -14496,7 +14496,7 @@
         <v>0.5225605245605732</v>
       </c>
       <c r="D541" t="n">
-        <v>9.948790015454961</v>
+        <v>9.516476185502464</v>
       </c>
       <c r="E541" t="n">
         <v>0.4225423280513516</v>
@@ -14522,7 +14522,7 @@
         <v>0.571084704732155</v>
       </c>
       <c r="D542" t="n">
-        <v>14.9323828856222</v>
+        <v>13.35090236280906</v>
       </c>
       <c r="E542" t="n">
         <v>0.251034355563413</v>
@@ -14548,7 +14548,7 @@
         <v>0.6115569288430051</v>
       </c>
       <c r="D543" t="n">
-        <v>14.73918264610565</v>
+        <v>15.12635239965178</v>
       </c>
       <c r="E543" t="n">
         <v>0.3967664906524676</v>
@@ -14632,7 +14632,7 @@
         <v>0.6084019419126161</v>
       </c>
       <c r="F546" t="n">
-        <v>10.84916879189628</v>
+        <v>11.01923715275517</v>
       </c>
       <c r="G546" t="n">
         <v>0.4990089749149004</v>
@@ -14704,7 +14704,7 @@
         <v>0.5996001837300799</v>
       </c>
       <c r="D549" t="n">
-        <v>7.487327956262712</v>
+        <v>7.481382085723664</v>
       </c>
       <c r="E549" t="n">
         <v>0.4491578131659533</v>
@@ -14742,7 +14742,7 @@
         <v>0.2362123113336008</v>
       </c>
       <c r="H550" t="n">
-        <v>3.506515306122449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551">
@@ -14756,7 +14756,7 @@
         <v>0.5078790567616169</v>
       </c>
       <c r="D551" t="n">
-        <v>8.318563195089371</v>
+        <v>10.10012918024971</v>
       </c>
       <c r="E551" t="n">
         <v>0.4820139582771397</v>
@@ -14808,13 +14808,13 @@
         <v>0.535042489209328</v>
       </c>
       <c r="D553" t="n">
-        <v>14.46185976269267</v>
+        <v>15.30234323983488</v>
       </c>
       <c r="E553" t="n">
         <v>0.5079943874196291</v>
       </c>
       <c r="F553" t="n">
-        <v>9.729823507700528</v>
+        <v>10.74794902560267</v>
       </c>
       <c r="G553" t="n">
         <v>0.4910025915593341</v>
@@ -14834,13 +14834,13 @@
         <v>0.552584981404459</v>
       </c>
       <c r="D554" t="n">
-        <v>6.772917773699509</v>
+        <v>7.469465697862283</v>
       </c>
       <c r="E554" t="n">
         <v>0.5178766021305975</v>
       </c>
       <c r="F554" t="n">
-        <v>16.13881422821576</v>
+        <v>16.09881311704147</v>
       </c>
       <c r="G554" t="n">
         <v>0.3643381781690782</v>
@@ -14866,13 +14866,13 @@
         <v>0.5701685754690983</v>
       </c>
       <c r="F555" t="n">
-        <v>12.25502610560652</v>
+        <v>13.4906129278152</v>
       </c>
       <c r="G555" t="n">
         <v>0.4800007036735474</v>
       </c>
       <c r="H555" t="n">
-        <v>1.248816326530612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556">
@@ -14886,13 +14886,13 @@
         <v>0.5113928997037814</v>
       </c>
       <c r="D556" t="n">
-        <v>5.75596206150642</v>
+        <v>5.55834136736338</v>
       </c>
       <c r="E556" t="n">
         <v>0.5243706318290806</v>
       </c>
       <c r="F556" t="n">
-        <v>14.26752928195135</v>
+        <v>13.4071932041485</v>
       </c>
       <c r="G556" t="n">
         <v>0.336858371554781</v>
@@ -14912,7 +14912,7 @@
         <v>0.5230950831544916</v>
       </c>
       <c r="D557" t="n">
-        <v>8.972068153760041</v>
+        <v>8.702009894295902</v>
       </c>
       <c r="E557" t="n">
         <v>0.3231160036425861</v>
@@ -15016,7 +15016,7 @@
         <v>0.766253765441175</v>
       </c>
       <c r="D561" t="n">
-        <v>5.711249580104915</v>
+        <v>6.671607039688836</v>
       </c>
       <c r="E561" t="n">
         <v>0.4673604727524325</v>
@@ -15054,7 +15054,7 @@
         <v>0.5613175782467195</v>
       </c>
       <c r="H562" t="n">
-        <v>3.589512191329912</v>
+        <v>4.025974735958486</v>
       </c>
     </row>
     <row r="563">
@@ -15146,7 +15146,7 @@
         <v>0.5092537608724276</v>
       </c>
       <c r="D566" t="n">
-        <v>6.127103049116062</v>
+        <v>6.149651384288077</v>
       </c>
       <c r="E566" t="n">
         <v>0.4015012679638792</v>
@@ -15224,7 +15224,7 @@
         <v>0.5278775549705006</v>
       </c>
       <c r="D569" t="n">
-        <v>11.27605731936705</v>
+        <v>10.61439924098135</v>
       </c>
       <c r="E569" t="n">
         <v>0.4396149471793577</v>
@@ -15256,7 +15256,7 @@
         <v>0.593931839438724</v>
       </c>
       <c r="F570" t="n">
-        <v>13.35679862615559</v>
+        <v>13.46591469394518</v>
       </c>
       <c r="G570" t="n">
         <v>0.3559262995115152</v>
@@ -15302,13 +15302,13 @@
         <v>0.631731945161334</v>
       </c>
       <c r="D572" t="n">
-        <v>9.283792335181882</v>
+        <v>9.170804417114669</v>
       </c>
       <c r="E572" t="n">
         <v>0.5849609749229902</v>
       </c>
       <c r="F572" t="n">
-        <v>11.5260079013546</v>
+        <v>11.89873134756875</v>
       </c>
       <c r="G572" t="n">
         <v>0.4191393373634074</v>
@@ -15380,13 +15380,13 @@
         <v>0.5138072551167663</v>
       </c>
       <c r="D575" t="n">
-        <v>6.125004662965755</v>
+        <v>4.942501760791533</v>
       </c>
       <c r="E575" t="n">
         <v>0.6038508477894511</v>
       </c>
       <c r="F575" t="n">
-        <v>17.33374585674946</v>
+        <v>16.14934418314412</v>
       </c>
       <c r="G575" t="n">
         <v>0.3823992196027737</v>
@@ -15418,7 +15418,7 @@
         <v>0.6397422224929353</v>
       </c>
       <c r="H576" t="n">
-        <v>14.42084084484959</v>
+        <v>23.25939058486623</v>
       </c>
     </row>
     <row r="577">
@@ -15458,7 +15458,7 @@
         <v>0.5299842429988815</v>
       </c>
       <c r="D578" t="n">
-        <v>6.273381463424085</v>
+        <v>5.69760512707239</v>
       </c>
       <c r="E578" t="n">
         <v>0.4717731144793731</v>
@@ -15470,7 +15470,7 @@
         <v>0.6096398743779808</v>
       </c>
       <c r="H578" t="n">
-        <v>5.919546670558082</v>
+        <v>10.57082837642516</v>
       </c>
     </row>
     <row r="579">
@@ -15574,7 +15574,7 @@
         <v>0.3897127080358873</v>
       </c>
       <c r="H582" t="n">
-        <v>0.001428571428571429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583">
@@ -15594,13 +15594,13 @@
         <v>0.5477612079843455</v>
       </c>
       <c r="F583" t="n">
-        <v>11.25225433876079</v>
+        <v>10.91669101376302</v>
       </c>
       <c r="G583" t="n">
         <v>0.2278804729580103</v>
       </c>
       <c r="H583" t="n">
-        <v>3.506515306122449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584">
@@ -15620,13 +15620,13 @@
         <v>0.6196306506563311</v>
       </c>
       <c r="F584" t="n">
-        <v>17.27654901558117</v>
+        <v>17.45845815822424</v>
       </c>
       <c r="G584" t="n">
         <v>0.3750901248792774</v>
       </c>
       <c r="H584" t="n">
-        <v>7.413749421768707</v>
+        <v>3.074072344322344</v>
       </c>
     </row>
     <row r="585">
@@ -15698,7 +15698,7 @@
         <v>0.6103479958319621</v>
       </c>
       <c r="F587" t="n">
-        <v>13.46924974031921</v>
+        <v>14.44983502553499</v>
       </c>
       <c r="G587" t="n">
         <v>0.370490952000974</v>
@@ -15718,7 +15718,7 @@
         <v>0.5458574717640394</v>
       </c>
       <c r="D588" t="n">
-        <v>7.334663708142058</v>
+        <v>8.144571532580402</v>
       </c>
       <c r="E588" t="n">
         <v>0.4709457442094511</v>
@@ -15744,7 +15744,7 @@
         <v>0.4806299947818172</v>
       </c>
       <c r="D589" t="n">
-        <v>5.795931323502887</v>
+        <v>7.134748756095096</v>
       </c>
       <c r="E589" t="n">
         <v>0.4410616337675692</v>
@@ -15756,7 +15756,7 @@
         <v>0.6280733547140424</v>
       </c>
       <c r="H589" t="n">
-        <v>15.31009028122729</v>
+        <v>15.32840416121473</v>
       </c>
     </row>
     <row r="590">
@@ -15770,7 +15770,7 @@
         <v>0.5147442995010957</v>
       </c>
       <c r="D590" t="n">
-        <v>11.99627779299074</v>
+        <v>11.42353160287561</v>
       </c>
       <c r="E590" t="n">
         <v>0.2690045020911537</v>
@@ -15802,13 +15802,13 @@
         <v>0.5147161489453475</v>
       </c>
       <c r="F591" t="n">
-        <v>10.99461635700609</v>
+        <v>12.30620236221324</v>
       </c>
       <c r="G591" t="n">
         <v>0.286313379533794</v>
       </c>
       <c r="H591" t="n">
-        <v>7.413749421768707</v>
+        <v>3.074072344322344</v>
       </c>
     </row>
     <row r="592">
@@ -15848,13 +15848,13 @@
         <v>0.5754211405606172</v>
       </c>
       <c r="D593" t="n">
-        <v>10.54891198442896</v>
+        <v>10.27492393236783</v>
       </c>
       <c r="E593" t="n">
         <v>0.685881058994121</v>
       </c>
       <c r="F593" t="n">
-        <v>11.45464170508494</v>
+        <v>11.33157998434054</v>
       </c>
       <c r="G593" t="n">
         <v>0.3882400067566019</v>
@@ -15874,7 +15874,7 @@
         <v>0.5232153412558457</v>
       </c>
       <c r="D594" t="n">
-        <v>10.43014489315376</v>
+        <v>12.42739335198308</v>
       </c>
       <c r="E594" t="n">
         <v>0.4370655755314505</v>
@@ -15900,13 +15900,13 @@
         <v>0.5991031696254138</v>
       </c>
       <c r="D595" t="n">
-        <v>5.886456294601259</v>
+        <v>5.047571885739629</v>
       </c>
       <c r="E595" t="n">
         <v>0.5057260445265327</v>
       </c>
       <c r="F595" t="n">
-        <v>9.271876652722279</v>
+        <v>10.10246975271246</v>
       </c>
       <c r="G595" t="n">
         <v>0.2805577992199329</v>
@@ -15926,7 +15926,7 @@
         <v>0.5460798097460819</v>
       </c>
       <c r="D596" t="n">
-        <v>32.29263000719796</v>
+        <v>26.29533433399165</v>
       </c>
       <c r="E596" t="n">
         <v>0.4461803751644579</v>
@@ -16056,7 +16056,7 @@
         <v>0.5336797753584622</v>
       </c>
       <c r="D601" t="n">
-        <v>15.67642082204254</v>
+        <v>16.06974385041148</v>
       </c>
       <c r="E601" t="n">
         <v>0.4877568676024401</v>
@@ -16108,7 +16108,7 @@
         <v>0.5001950365006463</v>
       </c>
       <c r="D603" t="n">
-        <v>13.62389644213251</v>
+        <v>13.65967895856265</v>
       </c>
       <c r="E603" t="n">
         <v>0.2098669945044425</v>
@@ -16120,7 +16120,7 @@
         <v>0.3084381885814559</v>
       </c>
       <c r="H603" t="n">
-        <v>0.04737460317460317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604">
@@ -16186,7 +16186,7 @@
         <v>0.5111130167683513</v>
       </c>
       <c r="D606" t="n">
-        <v>8.201395614743305</v>
+        <v>7.762618738623096</v>
       </c>
       <c r="E606" t="n">
         <v>0.4210690782574952</v>
@@ -16212,7 +16212,7 @@
         <v>0.5634282970583192</v>
       </c>
       <c r="D607" t="n">
-        <v>5.795483393651019</v>
+        <v>5.942283868762153</v>
       </c>
       <c r="E607" t="n">
         <v>0.3651178853226015</v>
@@ -16270,13 +16270,13 @@
         <v>0.5699465024442606</v>
       </c>
       <c r="F609" t="n">
-        <v>15.79953237217847</v>
+        <v>14.74164313403275</v>
       </c>
       <c r="G609" t="n">
         <v>0.5101324178011812</v>
       </c>
       <c r="H609" t="n">
-        <v>12.08505151483087</v>
+        <v>10.89411774976274</v>
       </c>
     </row>
     <row r="610">
@@ -16316,7 +16316,7 @@
         <v>0.5401313601335004</v>
       </c>
       <c r="D611" t="n">
-        <v>5.380293606219225</v>
+        <v>5.252459099791238</v>
       </c>
       <c r="E611" t="n">
         <v>0.4352427618129729</v>
@@ -16374,7 +16374,7 @@
         <v>0.5736653466731805</v>
       </c>
       <c r="F613" t="n">
-        <v>9.00075241639626</v>
+        <v>9.67308041394338</v>
       </c>
       <c r="G613" t="n">
         <v>0.4077508107914526</v>
@@ -16420,7 +16420,7 @@
         <v>0.5217065958960929</v>
       </c>
       <c r="D615" t="n">
-        <v>7.001546554793829</v>
+        <v>6.381994094849962</v>
       </c>
       <c r="E615" t="n">
         <v>0.4551021202808682</v>
@@ -16452,7 +16452,7 @@
         <v>0.5553637029610506</v>
       </c>
       <c r="F616" t="n">
-        <v>10.21609144617548</v>
+        <v>11.62832940816128</v>
       </c>
       <c r="G616" t="n">
         <v>0.396707502912799</v>
@@ -16504,7 +16504,7 @@
         <v>0.520495113717048</v>
       </c>
       <c r="F618" t="n">
-        <v>12.37655838770356</v>
+        <v>11.29308012931396</v>
       </c>
       <c r="G618" t="n">
         <v>0.3427950901014244</v>
@@ -16556,7 +16556,7 @@
         <v>0.5755806401651749</v>
       </c>
       <c r="F620" t="n">
-        <v>9.316889639487494</v>
+        <v>8.191132877341786</v>
       </c>
       <c r="G620" t="n">
         <v>0.2557288593756056</v>
@@ -16602,13 +16602,13 @@
         <v>0.519609453876226</v>
       </c>
       <c r="D622" t="n">
-        <v>4.554966808554998</v>
+        <v>4.463508072800893</v>
       </c>
       <c r="E622" t="n">
         <v>0.5732254420942502</v>
       </c>
       <c r="F622" t="n">
-        <v>15.38405632109953</v>
+        <v>13.58200276312718</v>
       </c>
       <c r="G622" t="n">
         <v>0.3634996314354298</v>
@@ -16654,7 +16654,7 @@
         <v>0.5761632461564431</v>
       </c>
       <c r="D624" t="n">
-        <v>12.63156636490735</v>
+        <v>12.84137785831281</v>
       </c>
       <c r="E624" t="n">
         <v>0.2468785818656618</v>
@@ -16680,7 +16680,7 @@
         <v>0.5014572158347701</v>
       </c>
       <c r="D625" t="n">
-        <v>7.311306462888614</v>
+        <v>6.341856573319502</v>
       </c>
       <c r="E625" t="n">
         <v>0.3912817810664384</v>
@@ -16706,13 +16706,13 @@
         <v>0.6852984334168437</v>
       </c>
       <c r="D626" t="n">
-        <v>10.7708658924406</v>
+        <v>9.615501793584286</v>
       </c>
       <c r="E626" t="n">
         <v>0.7021343980078673</v>
       </c>
       <c r="F626" t="n">
-        <v>12.81267844528488</v>
+        <v>14.40814039277832</v>
       </c>
       <c r="G626" t="n">
         <v>0.3224263535639482</v>
@@ -16732,7 +16732,7 @@
         <v>0.5415483796579852</v>
       </c>
       <c r="D627" t="n">
-        <v>5.18792231799581</v>
+        <v>5.508102295072749</v>
       </c>
       <c r="E627" t="n">
         <v>0.459614075984002</v>
@@ -16764,7 +16764,7 @@
         <v>0.5678112092652441</v>
       </c>
       <c r="F628" t="n">
-        <v>12.59158312233402</v>
+        <v>10.39061279575269</v>
       </c>
       <c r="G628" t="n">
         <v>0.40325566706935</v>
@@ -16822,7 +16822,7 @@
         <v>0.3335768831020595</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>1.749325510204082</v>
       </c>
     </row>
     <row r="631">
@@ -16836,7 +16836,7 @@
         <v>0.5221689892666714</v>
       </c>
       <c r="D631" t="n">
-        <v>6.476187235240128</v>
+        <v>6.344584558585091</v>
       </c>
       <c r="E631" t="n">
         <v>0.4589093164523741</v>
@@ -16862,7 +16862,7 @@
         <v>0.5637327194510715</v>
       </c>
       <c r="D632" t="n">
-        <v>8.826208749211213</v>
+        <v>9.99072575317131</v>
       </c>
       <c r="E632" t="n">
         <v>0.3139740921317875</v>
@@ -16888,7 +16888,7 @@
         <v>0.5475057419289201</v>
       </c>
       <c r="D633" t="n">
-        <v>7.514237411605811</v>
+        <v>7.575393883033405</v>
       </c>
       <c r="E633" t="n">
         <v>0.4354643984917129</v>
@@ -16914,7 +16914,7 @@
         <v>0.5244328805163698</v>
       </c>
       <c r="D634" t="n">
-        <v>10.82505787757173</v>
+        <v>10.76879219558686</v>
       </c>
       <c r="E634" t="n">
         <v>0.42186701993338</v>
@@ -16998,7 +16998,7 @@
         <v>0.5577984674182007</v>
       </c>
       <c r="F637" t="n">
-        <v>10.72353369229771</v>
+        <v>10.39342647503631</v>
       </c>
       <c r="G637" t="n">
         <v>0.3487396133034104</v>
@@ -17096,7 +17096,7 @@
         <v>0.5137330727516779</v>
       </c>
       <c r="D641" t="n">
-        <v>15.49109854377547</v>
+        <v>13.38188935680227</v>
       </c>
       <c r="E641" t="n">
         <v>0.2745638734591421</v>
@@ -17134,7 +17134,7 @@
         <v>0.3493816545223864</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>0.07620765306122448</v>
       </c>
     </row>
     <row r="643">
